--- a/delong-github-public-files-database.xlsx
+++ b/delong-github-public-files-database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>Table 1</t>
   </si>
@@ -31,426 +31,441 @@
     <t>Course</t>
   </si>
   <si>
-    <t>1919-inevitability-&amp;-chance.pdf</t>
+    <t>2020-03-16-17.04.37-Econ-115-Zoom-594152890=coronavirus.zip</t>
+  </si>
+  <si>
+    <t>lecture q&amp;a zoom session</t>
+  </si>
+  <si>
+    <t>econ-115</t>
+  </si>
+  <si>
+    <t>#tceh</t>
+  </si>
+  <si>
+    <t>2020-03-17-09.55.13-Econ-135-Zoom-7584227890-convergence.zip</t>
+  </si>
+  <si>
+    <t>econ-135</t>
+  </si>
+  <si>
+    <t>2020-03-18-17.00.52-Econ-115-Zoom-594152890.zip</t>
+  </si>
+  <si>
+    <t>article-clark-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>article-dasgupta-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>article-diamond-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>#ieh</t>
+  </si>
+  <si>
+    <t>article-diamond-mistake-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>article-jones-r-&amp;-d-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>article-pritchett-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>article-steckel-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>book-gilgamesh-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>book-selections-clark-farewell-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>book-selections-temin-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>coronavirus-state.xlsx</t>
+  </si>
+  <si>
+    <t>state-by-state coronavirus numbers</t>
+  </si>
+  <si>
+    <t>#corona</t>
+  </si>
+  <si>
+    <t>coronavirus.pptx</t>
+  </si>
+  <si>
+    <t>slides on coronavirus</t>
+  </si>
+  <si>
+    <t>delong-baumol-archive.pdf</t>
+  </si>
+  <si>
+    <t>my 1988 anti-convergence are article</t>
+  </si>
+  <si>
+    <t>delong-github-public-files-database</t>
+  </si>
+  <si>
+    <t>master file &amp; record for things in this directory</t>
+  </si>
+  <si>
+    <t>#index</t>
+  </si>
+  <si>
+    <t>Econ 210a Spring 2020 Syllabus.pdf</t>
+  </si>
+  <si>
+    <t>DEPRECATED—replaced by econ-210a-syllabus.pdf</t>
+  </si>
+  <si>
+    <t>econ-210a</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-1.pptx</t>
+  </si>
+  <si>
+    <t>introduction &amp; themes</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-10.pptx</t>
+  </si>
+  <si>
+    <t>cold war</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-11.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false (&amp; true) starts to convergence in emerging markets </t>
+  </si>
+  <si>
+    <t>econ-115-lecture-12.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirty glorious years, 1945–1975 </t>
+  </si>
+  <si>
+    <t>econ-115-lecture-13.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social democracy: high tide &amp; ebb </t>
+  </si>
+  <si>
+    <t>econ-115-lecture-14.pptx</t>
+  </si>
+  <si>
+    <t>the end of really existing socialism</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-15.pptx</t>
+  </si>
+  <si>
+    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf)</t>
+  </si>
+  <si>
+    <t>#heg</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-2.pptx</t>
+  </si>
+  <si>
+    <t>the watershed: globalization, &amp; the engine of growth</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-3.pptx</t>
+  </si>
+  <si>
+    <t>north atlantic political economy 1870-1914</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-4.pptx</t>
+  </si>
+  <si>
+    <t>empire &amp; war</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-5.pptx</t>
+  </si>
+  <si>
+    <t>trying to rebuild civilization after www</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-6.pptx</t>
+  </si>
+  <si>
+    <t>macroeconomic for beginners &amp; roaring twenties</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-7.pptx</t>
+  </si>
+  <si>
+    <t>understanding the great depression</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-8.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternatives to let-it-alone marketism </t>
+  </si>
+  <si>
+    <t>econ-115-lecture-9.pptx</t>
+  </si>
+  <si>
+    <t>fascism &amp; wwii</t>
+  </si>
+  <si>
+    <t>econ-135-changeup-review-2-5-10-20.pptx</t>
+  </si>
+  <si>
+    <t>pre-midterm review</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-1.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the big picture: economic growth in historical perspective </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-10.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the industrial revolution ii </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-11.pptx</t>
+  </si>
+  <si>
+    <t>why northwest europe?</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-12.pptx</t>
+  </si>
+  <si>
+    <t>modern economic growth</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-13.pptx</t>
+  </si>
+  <si>
+    <t>u.s. economic ascendancy (also: how america became the exceptional nation)</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-14.pptx</t>
+  </si>
+  <si>
+    <t>globalization advances &amp; retreats</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-15.pptx</t>
+  </si>
+  <si>
+    <t>convergence &amp; its absence</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-16.pptx</t>
+  </si>
+  <si>
+    <t>inequality &amp; plutocracy (also: lecture-inequality.pptx, lecture-inequality-text.pdf</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-17.pptx</t>
+  </si>
+  <si>
+    <t>the development of underdevelopment: explication of lewis: evolution</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-2-outline-solow-theory.pptx</t>
+  </si>
+  <si>
+    <t>outline &amp; cheat sheet for the solow growth model</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-2.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theory: robert solow’s economic growth model </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-3-outline-malthusian-theory.pptx</t>
+  </si>
+  <si>
+    <t>outline &amp; cheat sheet for the malthusian growth model</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-3.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theory: the malthus-solow economic growth model </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-4.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theory: determinants of the rate of growth </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-5.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intensive economic growth’s absence in the malthusian agrarian age </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-6.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient empires: “efflorescences”, rises, &amp; falls </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-7.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why was pre-industrial progress so slow on average? </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-8.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial revolutions </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-9.pptx</t>
+  </si>
+  <si>
+    <t>the industrial revolution i</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-1.pptx</t>
+  </si>
+  <si>
+    <t>introduction to economic history &amp; malthusian economies</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-1a.pptx</t>
+  </si>
+  <si>
+    <t>introduction to economic history</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-1b.pptx</t>
+  </si>
+  <si>
+    <t>malthusian economies</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-2.pptx</t>
+  </si>
+  <si>
+    <t>technology &amp; organization in the very long run</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-2a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-2b.pptx</t>
+  </si>
+  <si>
+    <t>commercial revolutions</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-3a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-3b.pptx</t>
+  </si>
+  <si>
+    <t>industrial revolutions</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-4a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-4b.pptx</t>
+  </si>
+  <si>
+    <t>comparative development &amp; underdevelopment</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-5a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-5b.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern economic growth </t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-6a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-6b.pptx</t>
+  </si>
+  <si>
+    <t>unfreedom</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-8a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-8b.pptx</t>
+  </si>
+  <si>
+    <t>women, men, &amp; children</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-9a.pptx</t>
+  </si>
+  <si>
+    <t>capital markets</t>
+  </si>
+  <si>
+    <t>econ-210a-syllabus.pdf</t>
+  </si>
+  <si>
+    <t>updated syllabus &amp; reading list to graduate introduction to economic history course</t>
+  </si>
+  <si>
+    <t>book-selections-evans-embedded-i.pdf</t>
+  </si>
+  <si>
+    <t>peter evens: embedded autonomy—ch 1 of the go-to book on industrial policy</t>
+  </si>
+  <si>
+    <t>econ-hist-grad-intro.pdf</t>
+  </si>
+  <si>
+    <t>syllabus &amp; reading list to graduate introduction to economic history course</t>
+  </si>
+  <si>
+    <t>ps-judy-shelton-2020-03.pdf</t>
+  </si>
+  <si>
+    <t>importance of preserving technocratic chops of the fed</t>
+  </si>
+  <si>
+    <t>#ps</t>
+  </si>
+  <si>
+    <t>#ohb</t>
+  </si>
+  <si>
+    <t>lecture-1919-inevitability-&amp;-chance.pdf</t>
   </si>
   <si>
     <t>wwi &amp; its outcome as a butterfly-flap crux of history</t>
   </si>
   <si>
-    <t>econ-115</t>
-  </si>
-  <si>
-    <t>#tceh</t>
-  </si>
-  <si>
-    <t>2020-03-16-17.04.37-Econ-115-Zoom-594152890=coronavirus.zip</t>
-  </si>
-  <si>
-    <t>lecture q&amp;a zoom session</t>
-  </si>
-  <si>
-    <t>2020-03-17-09.55.13-Econ-135-Zoom-7584227890-convergence.zip</t>
-  </si>
-  <si>
-    <t>econ-135</t>
-  </si>
-  <si>
-    <t>2020-03-18-17.00.52-Econ-115-Zoom-594152890.zip</t>
-  </si>
-  <si>
-    <t>american-exceptionalism-#TCEH.pdf</t>
+    <t>lecture-american-exceptionalism.pdf</t>
   </si>
   <si>
     <t>how america became the exceptional nation in the long 20th century (econ-135-lecture-13.pptx)</t>
   </si>
   <si>
-    <t>#heg</t>
-  </si>
-  <si>
-    <t>article-clark-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>article-dasgupta-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>article-diamond-#ieh.pptx</t>
-  </si>
-  <si>
-    <t>article-diamond-mistake-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>article-jones-r-&amp;-d.pptx</t>
-  </si>
-  <si>
-    <t>article-pritchett-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>article-steckel.pptx</t>
-  </si>
-  <si>
-    <t>book-gilgamesh-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>book-selections-clark-farewell-#ieh.pptx</t>
-  </si>
-  <si>
-    <t>book-temin-selections-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>coronavirus-state.xlsx</t>
-  </si>
-  <si>
-    <t>state-by-state coronavirus numbers</t>
-  </si>
-  <si>
-    <t>#corona</t>
-  </si>
-  <si>
-    <t>coronavirus.pptx</t>
-  </si>
-  <si>
-    <t>slides on coronavirus</t>
-  </si>
-  <si>
-    <t>delong-baumol.pdf</t>
-  </si>
-  <si>
-    <t>my 1988 anti-convergence are article</t>
-  </si>
-  <si>
-    <t>Econ 210a Spring 2020 Syllabus.pdf</t>
-  </si>
-  <si>
-    <t>DEPRECATED—replaced by econ-210a-syllabus.pdf</t>
-  </si>
-  <si>
-    <t>econ-210a</t>
-  </si>
-  <si>
-    <t>#ieh</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-1.pptx</t>
-  </si>
-  <si>
-    <t>introduction &amp; themes</t>
-  </si>
-  <si>
-    <t>.pdf</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-10.pptx</t>
-  </si>
-  <si>
-    <t>cold war</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-11.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false (&amp; true) starts to convergence in emerging markets </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-12.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirty glorious years, 1945–1975 </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-13.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social democracy: high tide &amp; ebb </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-14.pptx</t>
-  </si>
-  <si>
-    <t>the end of really existing socialism</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-2.pptx</t>
-  </si>
-  <si>
-    <t>the watershed: globalization, &amp; the engine of growth</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-3.pptx</t>
-  </si>
-  <si>
-    <t>north atlantic political economy 1870-1914</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-4.pptx</t>
-  </si>
-  <si>
-    <t>empire &amp; war</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-5.pptx</t>
-  </si>
-  <si>
-    <t>trying to rebuild civilization after www</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-6.pptx</t>
-  </si>
-  <si>
-    <t>macroeconomic for beginners &amp; roaring twenties</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-7.pptx</t>
-  </si>
-  <si>
-    <t>understanding the great depression</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-8.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alternatives to let-it-alone marketism </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-9.pptx</t>
-  </si>
-  <si>
-    <t>fascism &amp; wwii</t>
-  </si>
-  <si>
-    <t>econ-135-changeup-review-2-5-10-20.pptx</t>
-  </si>
-  <si>
-    <t>pre-midterm review</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-1.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the big picture: economic growth in historical perspective </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-10.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the industrial revolution ii </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-11.pptx</t>
-  </si>
-  <si>
-    <t>why northwest europe?</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-12.pptx</t>
-  </si>
-  <si>
-    <t>modern economic growth</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-13.pptx</t>
-  </si>
-  <si>
-    <t>u.s. economic ascendancy (also: how america became the exceptional nation)</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-14.pptx</t>
-  </si>
-  <si>
-    <t>globalization advances &amp; retreats</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-15.pptx</t>
-  </si>
-  <si>
-    <t>convergence &amp; its absence</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-16.pptx</t>
-  </si>
-  <si>
-    <t>inequality &amp; plutocracy (also: lecture-inequality.pptx, lecture-inequality-text.pdf</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-17.pptx</t>
-  </si>
-  <si>
-    <t>the development of underdevelopment: explication of lewis: evolution</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-2-outline-solow-theory.pptx</t>
-  </si>
-  <si>
-    <t>outline &amp; cheat sheet for the solow growth model</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-2.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theory: robert solow’s economic growth model </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-3-outline-malthusian-theory.pptx</t>
-  </si>
-  <si>
-    <t>outline &amp; cheat sheet for the malthusian growth model</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-3.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theory: the malthus-solow economic growth model </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-4.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theory: determinants of the rate of growth </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-5.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intensive economic growth’s absence in the malthusian agrarian age </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-6.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient empires: “efflorescences”, rises, &amp; falls </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-7.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why was pre-industrial progress so slow on average? </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-8.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commercial revolutions </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-9.pptx</t>
-  </si>
-  <si>
-    <t>the industrial revolution i</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-1.pptx</t>
-  </si>
-  <si>
-    <t>introduction to economic history &amp; malthusian economies</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-1a.pptx</t>
-  </si>
-  <si>
-    <t>introduction to economic history</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-1b.pptx</t>
-  </si>
-  <si>
-    <t>malthusian economies</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-2.pptx</t>
-  </si>
-  <si>
-    <t>technology &amp; organization in the very long run</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-2a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-2b.pptx</t>
-  </si>
-  <si>
-    <t>commercial revolutions</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-3a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-3b.pptx</t>
-  </si>
-  <si>
-    <t>industrial revolutions</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-4a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-4b.pptx</t>
-  </si>
-  <si>
-    <t>comparative development &amp; underdevelopment</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-5a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-5b.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern economic growth </t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-6a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-6b.pptx</t>
-  </si>
-  <si>
-    <t>unfreedom</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-8a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-8b.pptx</t>
-  </si>
-  <si>
-    <t>women, men, &amp; children</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-9a.pptx</t>
-  </si>
-  <si>
-    <t>capital markets</t>
-  </si>
-  <si>
-    <t>econ-210a-syllabus.pdf</t>
-  </si>
-  <si>
-    <t>updated syllabus &amp; reading list to graduate introduction to economic history course</t>
-  </si>
-  <si>
-    <t>evans-embedded-i.pdf</t>
-  </si>
-  <si>
-    <t>peter evens: embedded autonomy—ch 1 of the go-to book on industrial policy</t>
-  </si>
-  <si>
-    <t>intro-econ-hist-grad.pdf</t>
-  </si>
-  <si>
-    <t>syllabus &amp; reading list to graduate introduction to economic history course</t>
-  </si>
-  <si>
-    <t>judy-shelton-project-syndicate-2020-03.pdf</t>
-  </si>
-  <si>
-    <t>importance of preserving technocratic chops of the fed</t>
-  </si>
-  <si>
-    <t>#ps</t>
-  </si>
-  <si>
-    <t>#ohb</t>
-  </si>
-  <si>
     <t>lecture-development-of-underdevelopment-text.pdf</t>
   </si>
   <si>
@@ -469,7 +484,13 @@
     <t>invited lecture (brown)—slides (also text available)</t>
   </si>
   <si>
-    <t>lewis-evolution-a.pdf</t>
+    <t>lecture-neoliberal-turn-text.pdf</t>
+  </si>
+  <si>
+    <t>the neoliberal turn (also econ-115-lecture-15.pptx)</t>
+  </si>
+  <si>
+    <t>book-lewis-evolution-a.pdf</t>
   </si>
   <si>
     <t>w. arthur lewis: evolution of the international economic order i</t>
@@ -478,7 +499,7 @@
     <t>#read</t>
   </si>
   <si>
-    <t>lewis-evolution-b.pdf</t>
+    <t>book-lewis-evolution-b.pdf</t>
   </si>
   <si>
     <t>w. arthur lewis: evolution of the international economic order ii</t>
@@ -493,13 +514,13 @@
     <t>module-malthusian-#MRE-d.pptx</t>
   </si>
   <si>
-    <t>neoliberalism.pptx</t>
+    <t>lecture-neoliberalism.pptx</t>
   </si>
   <si>
     <t>neoliberalism, state capacity, &amp; economic growth &amp; development: invited skema lecture</t>
   </si>
   <si>
-    <t>reading-robert-allen-ir.pptx</t>
+    <t>book-robert-allen-ir-reading-note.pptx</t>
   </si>
   <si>
     <t>us-coronavirus-deaths.xlsx</t>
@@ -508,16 +529,10 @@
     <t>u.s. coronavirus deaths by date</t>
   </si>
   <si>
-    <t>wealth-tax-project-syndicate-2020-02.pdf</t>
+    <t>ps-wealth-tax-2020-02.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">decision between wealth, income, consumption taxes should be based on convenience of implementation </t>
-  </si>
-  <si>
-    <t>delong-github-public-files-database</t>
-  </si>
-  <si>
-    <t>master file &amp; record for things in this directory</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L89"/>
+  <dimension ref="A2:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1827,8 +1842,8 @@
     <col min="6" max="6" width="7.28906" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.86719" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.70312" style="1" customWidth="1"/>
-    <col min="9" max="12" width="6.86719" style="1" customWidth="1"/>
-    <col min="13" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="13" width="6.86719" style="1" customWidth="1"/>
+    <col min="14" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1846,6 +1861,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1870,6 +1886,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
@@ -1880,7 +1897,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="E3" t="s" s="9">
         <v>8</v>
@@ -1894,20 +1911,21 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
         <v>10</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="E4" t="s" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s" s="14">
         <v>9</v>
@@ -1918,20 +1936,21 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
         <v>12</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="E5" t="s" s="14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s" s="14">
         <v>9</v>
@@ -1942,60 +1961,49 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13">
-        <v>43908</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s" s="14">
-        <v>9</v>
-      </c>
+        <v>43875</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E7" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s" s="14">
-        <v>17</v>
-      </c>
+        <v>43851</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="12"/>
@@ -2006,14 +2014,17 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="I8" t="s" s="14">
+        <v>16</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="12"/>
@@ -2024,19 +2035,22 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" t="s" s="14">
+        <v>16</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <v>43875</v>
+        <v>43851</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -2046,10 +2060,11 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="12"/>
@@ -2064,15 +2079,16 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13">
-        <v>43851</v>
+        <v>43875</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -2082,10 +2098,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="12"/>
@@ -2100,10 +2117,11 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="12"/>
@@ -2118,15 +2136,16 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13">
-        <v>43851</v>
+        <v>43875</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -2136,64 +2155,74 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="B16" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>25</v>
+      </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13">
-        <v>43875</v>
+        <v>43920</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" t="s" s="14">
+        <v>26</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" t="s" s="11">
+        <v>28</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13">
-        <v>43875</v>
+        <v>43912</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" t="s" s="14">
+        <v>26</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13">
-        <v>43920</v>
+        <v>43906</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
@@ -2204,75 +2233,84 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13">
-        <v>43912</v>
+        <v>43920</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
+      <c r="M19" t="s" s="14">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E20" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E20" t="s" s="14">
+        <v>36</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="I20" t="s" s="14">
+        <v>16</v>
+      </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="C21" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>39</v>
+      </c>
       <c r="D21" s="13">
         <v>43875</v>
       </c>
       <c r="E21" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" t="s" s="14">
-        <v>38</v>
-      </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E22" t="s" s="14">
         <v>8</v>
@@ -2286,6 +2324,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
@@ -2295,7 +2334,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="13">
         <v>43903</v>
@@ -2312,6 +2351,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
@@ -2321,7 +2361,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="13">
         <v>43903</v>
@@ -2338,6 +2378,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
@@ -2347,10 +2388,10 @@
         <v>47</v>
       </c>
       <c r="C25" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="13">
-        <v>43903</v>
+        <v>43920</v>
       </c>
       <c r="E25" t="s" s="14">
         <v>8</v>
@@ -2364,6 +2405,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
@@ -2373,10 +2415,10 @@
         <v>49</v>
       </c>
       <c r="C26" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="13">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="E26" t="s" s="14">
         <v>8</v>
@@ -2390,6 +2432,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
@@ -2399,10 +2442,10 @@
         <v>51</v>
       </c>
       <c r="C27" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="13">
-        <v>43916</v>
+        <v>43921</v>
       </c>
       <c r="E27" t="s" s="14">
         <v>8</v>
@@ -2410,22 +2453,25 @@
       <c r="F27" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" t="s" s="14">
+        <v>52</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="13">
         <v>43875</v>
@@ -2442,16 +2488,17 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="13">
         <v>43875</v>
@@ -2468,16 +2515,17 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="13">
         <v>43875</v>
@@ -2494,16 +2542,17 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="13">
         <v>43875</v>
@@ -2520,16 +2569,17 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="13">
         <v>43875</v>
@@ -2546,16 +2596,17 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="13">
         <v>43903</v>
@@ -2572,16 +2623,17 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="13">
         <v>43903</v>
@@ -2598,16 +2650,17 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="13">
         <v>43903</v>
@@ -2624,999 +2677,1038 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="13">
         <v>43875</v>
       </c>
       <c r="E36" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="13">
         <v>43875</v>
       </c>
       <c r="E37" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="13">
         <v>43888</v>
       </c>
       <c r="E38" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="13">
         <v>43903</v>
       </c>
       <c r="E39" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="13">
         <v>43903</v>
       </c>
       <c r="E40" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D41" s="13">
         <v>43903</v>
       </c>
       <c r="E41" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="13">
         <v>43903</v>
       </c>
       <c r="E42" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43" s="13">
         <v>43907</v>
       </c>
       <c r="E43" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" s="13">
         <v>43909</v>
       </c>
       <c r="E44" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45" s="13">
         <v>43919</v>
       </c>
       <c r="E45" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46" s="13">
         <v>43875</v>
       </c>
       <c r="E46" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" s="13">
         <v>43875</v>
       </c>
       <c r="E47" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D48" s="13">
         <v>43875</v>
       </c>
       <c r="E48" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D49" s="13">
         <v>43875</v>
       </c>
       <c r="E49" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" s="13">
         <v>43875</v>
       </c>
       <c r="E50" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" s="13">
         <v>43875</v>
       </c>
       <c r="E51" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52" s="13">
         <v>43875</v>
       </c>
       <c r="E52" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D53" s="13">
         <v>43875</v>
       </c>
       <c r="E53" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D54" s="13">
         <v>43888</v>
       </c>
       <c r="E54" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D55" s="13">
         <v>43888</v>
       </c>
       <c r="E55" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D56" s="13">
         <v>43875</v>
       </c>
       <c r="E56" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D57" s="13">
         <v>43875</v>
       </c>
       <c r="E57" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D58" s="13">
         <v>43875</v>
       </c>
       <c r="E58" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D59" s="13">
         <v>43875</v>
       </c>
       <c r="E59" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s" s="11">
         <v>116</v>
       </c>
-      <c r="B60" t="s" s="11">
-        <v>115</v>
-      </c>
       <c r="C60" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D60" s="13">
         <v>43875</v>
       </c>
       <c r="E60" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61" s="13">
         <v>43875</v>
       </c>
       <c r="E61" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s" s="11">
         <v>119</v>
       </c>
-      <c r="B62" t="s" s="11">
-        <v>118</v>
-      </c>
       <c r="C62" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D62" s="13">
         <v>43875</v>
       </c>
       <c r="E62" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D63" s="13">
         <v>43875</v>
       </c>
       <c r="E63" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s" s="11">
         <v>122</v>
       </c>
-      <c r="B64" t="s" s="11">
-        <v>121</v>
-      </c>
       <c r="C64" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" s="13">
         <v>43875</v>
       </c>
       <c r="E64" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D65" s="13">
         <v>43875</v>
       </c>
       <c r="E65" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="B66" t="s" s="11">
-        <v>124</v>
-      </c>
       <c r="C66" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66" s="13">
         <v>43888</v>
       </c>
       <c r="E66" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D67" s="13">
         <v>43888</v>
       </c>
       <c r="E67" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s" s="11">
         <v>128</v>
       </c>
-      <c r="B68" t="s" s="11">
-        <v>127</v>
-      </c>
       <c r="C68" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D68" s="13">
         <v>43888</v>
       </c>
       <c r="E68" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D69" s="13">
         <v>43888</v>
       </c>
       <c r="E69" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s" s="11">
         <v>131</v>
       </c>
-      <c r="B70" t="s" s="11">
-        <v>130</v>
-      </c>
       <c r="C70" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" s="13">
         <v>43903</v>
       </c>
       <c r="E70" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D71" s="13">
         <v>43903</v>
       </c>
       <c r="E71" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s" s="14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D72" s="13">
         <v>43907</v>
       </c>
       <c r="E72" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="13">
         <v>43907</v>
       </c>
       <c r="E73" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="13">
@@ -3630,37 +3722,39 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="13">
         <v>43888</v>
       </c>
       <c r="E75" t="s" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" t="s" s="14">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="13">
@@ -3672,108 +3766,115 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" t="s" s="14">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K76" s="12"/>
       <c r="L76" t="s" s="14">
-        <v>145</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M76" s="12"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="13">
-        <v>43919</v>
+        <v>43904</v>
       </c>
       <c r="E77" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" t="s" s="14">
-        <v>17</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F77" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="13">
-        <v>43912</v>
+        <v>43903</v>
       </c>
       <c r="E78" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="F78" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="F78" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="G78" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s" s="11">
-        <v>151</v>
-      </c>
-      <c r="C79" t="s" s="14">
-        <v>41</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C79" s="12"/>
       <c r="D79" s="13">
-        <v>43912</v>
+        <v>43919</v>
       </c>
       <c r="E79" t="s" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" t="s" s="14">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="13">
-        <v>41424</v>
-      </c>
-      <c r="E80" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E80" t="s" s="14">
+        <v>11</v>
+      </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="G80" t="s" s="14">
+        <v>52</v>
+      </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
-      <c r="K80" t="s" s="14">
-        <v>154</v>
-      </c>
+      <c r="K80" s="12"/>
       <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="10">
@@ -3782,47 +3883,65 @@
       <c r="B81" t="s" s="11">
         <v>156</v>
       </c>
-      <c r="C81" s="12"/>
+      <c r="C81" t="s" s="14">
+        <v>39</v>
+      </c>
       <c r="D81" s="13">
-        <v>39543</v>
-      </c>
-      <c r="E81" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E81" t="s" s="14">
+        <v>11</v>
+      </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="G81" t="s" s="14">
+        <v>52</v>
+      </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
-      <c r="K81" t="s" s="14">
-        <v>154</v>
-      </c>
+      <c r="K81" s="12"/>
       <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="10">
         <v>157</v>
       </c>
-      <c r="B82" s="15"/>
+      <c r="B82" t="s" s="11">
+        <v>158</v>
+      </c>
       <c r="C82" s="12"/>
       <c r="D82" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E82" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s" s="14">
+        <v>52</v>
+      </c>
       <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
+      <c r="I82" t="s" s="14">
+        <v>16</v>
+      </c>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="B83" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="B83" t="s" s="11">
+        <v>160</v>
+      </c>
       <c r="C83" s="12"/>
       <c r="D83" s="13">
-        <v>43875</v>
+        <v>41424</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -3830,17 +3949,22 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
+      <c r="K83" t="s" s="14">
+        <v>161</v>
+      </c>
       <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="10">
-        <v>159</v>
-      </c>
-      <c r="B84" s="15"/>
+        <v>162</v>
+      </c>
+      <c r="B84" t="s" s="11">
+        <v>163</v>
+      </c>
       <c r="C84" s="12"/>
       <c r="D84" s="13">
-        <v>43875</v>
+        <v>39543</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -3848,19 +3972,20 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
+      <c r="K84" t="s" s="14">
+        <v>161</v>
+      </c>
       <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="10">
-        <v>160</v>
-      </c>
-      <c r="B85" t="s" s="11">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B85" s="15"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -3870,15 +3995,16 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="10">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -3888,61 +4014,56 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="10">
-        <v>163</v>
-      </c>
-      <c r="B87" t="s" s="11">
-        <v>164</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B87" s="15"/>
       <c r="C87" s="12"/>
       <c r="D87" s="13">
-        <v>43920</v>
+        <v>43875</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
-      <c r="H87" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="13">
-        <v>43903</v>
+        <v>43888</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
-      <c r="J88" t="s" s="14">
-        <v>144</v>
-      </c>
+      <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="10">
-        <v>167</v>
-      </c>
-      <c r="B89" t="s" s="11">
-        <v>168</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B89" s="15"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13">
-        <v>43920</v>
+        <v>43888</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -3952,10 +4073,57 @@
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+    </row>
+    <row r="90" ht="20.05" customHeight="1">
+      <c r="A90" t="s" s="10">
+        <v>170</v>
+      </c>
+      <c r="B90" t="s" s="11">
+        <v>171</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13">
+        <v>43920</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+    </row>
+    <row r="91" ht="20.05" customHeight="1">
+      <c r="A91" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="B91" t="s" s="11">
+        <v>173</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13">
+        <v>43903</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" t="s" s="14">
+        <v>145</v>
+      </c>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/delong-github-public-files-database.xlsx
+++ b/delong-github-public-files-database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>Table 1</t>
   </si>
@@ -31,39 +31,522 @@
     <t>Course</t>
   </si>
   <si>
-    <t>2020-03-16-17.04.37-Econ-115-Zoom-594152890=coronavirus.zip</t>
+    <t>#tceh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#heg </t>
+  </si>
+  <si>
+    <t>#corona</t>
+  </si>
+  <si>
+    <t>#ieh</t>
+  </si>
+  <si>
+    <t>#invite</t>
+  </si>
+  <si>
+    <t>#index</t>
+  </si>
+  <si>
+    <t>#unfinished</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>delong-github-public-files-database</t>
+  </si>
+  <si>
+    <t>master file &amp; record for things in this directory</t>
+  </si>
+  <si>
+    <t>lecture-notes-smith-marx-keynes.pdf</t>
+  </si>
+  <si>
+    <t>not quite finished lecture notes for history of economic thought “great books” course: 44000 words</t>
+  </si>
+  <si>
+    <t>econ-105</t>
+  </si>
+  <si>
+    <t>#heg</t>
+  </si>
+  <si>
+    <t>econ-135-zoom-placeholder-2020-03-19.html</t>
+  </si>
+  <si>
+    <t>2020-03-19 zoom lecture q&amp;a session for econ 135: history of economic growth</t>
+  </si>
+  <si>
+    <t>econ-135</t>
+  </si>
+  <si>
+    <t>econ-115-zoom-placeholder-2020-03-30.html</t>
+  </si>
+  <si>
+    <t>2020-03-30 zoom lecture q&amp;a session for econ 115: twentieth century economic history</t>
+  </si>
+  <si>
+    <t>econ-115</t>
+  </si>
+  <si>
+    <t>econ-135-zoom-2020-03-31-10.05.17-620006822.zip</t>
+  </si>
+  <si>
+    <t>2020-03-31 zoom lecture q&amp;a session for econ 135: history of economic growth</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-15.pptx</t>
+  </si>
+  <si>
+    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf)</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>econ-210a-syllabus.pdf</t>
+  </si>
+  <si>
+    <t>updated syllabus &amp; reading list to graduate introduction to economic history course</t>
+  </si>
+  <si>
+    <t>econ-210a</t>
+  </si>
+  <si>
+    <t>lecture-neoliberal-turn-text.pdf</t>
+  </si>
+  <si>
+    <t>the neoliberal turn (also econ-115-lecture-15.pptx)</t>
+  </si>
+  <si>
+    <t>coronavirus-state.xlsx</t>
+  </si>
+  <si>
+    <t>state-by-state coronavirus numbers</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-13.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social democracy: high tide &amp; ebb </t>
+  </si>
+  <si>
+    <t>us-coronavirus-deaths.xlsx</t>
+  </si>
+  <si>
+    <t>u.s. coronavirus deaths by date</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-17.pptx</t>
+  </si>
+  <si>
+    <t>the development of underdevelopment: explication of lewis: evolution</t>
+  </si>
+  <si>
+    <t>lecture-development-of-underdevelopment-text.pdf</t>
+  </si>
+  <si>
+    <t>lecture text to econ-135-lecture-17.pptx</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-14.pptx</t>
+  </si>
+  <si>
+    <t>the end of really existing socialism</t>
+  </si>
+  <si>
+    <t>coronavirus.pptx</t>
+  </si>
+  <si>
+    <t>slides on coronavirus</t>
+  </si>
+  <si>
+    <t>lecture-inequality-text.pdf</t>
+  </si>
+  <si>
+    <t>invited lecture (brown)—text (also slides available0)</t>
+  </si>
+  <si>
+    <t>lecture-inequality.pptx</t>
+  </si>
+  <si>
+    <t>invited lecture (brown)—slides (also text available)</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-16.pptx</t>
+  </si>
+  <si>
+    <t>inequality &amp; plutocracy (also: lecture-inequality.pptx, lecture-inequality-text.pdf</t>
+  </si>
+  <si>
+    <t>econ-115-zoom-2020-03-18-17.00.52-594152890.zip</t>
   </si>
   <si>
     <t>lecture q&amp;a zoom session</t>
   </si>
   <si>
-    <t>econ-115</t>
-  </si>
-  <si>
-    <t>#tceh</t>
-  </si>
-  <si>
-    <t>2020-03-17-09.55.13-Econ-135-Zoom-7584227890-convergence.zip</t>
-  </si>
-  <si>
-    <t>econ-135</t>
-  </si>
-  <si>
-    <t>2020-03-18-17.00.52-Econ-115-Zoom-594152890.zip</t>
+    <t>econ-135-lecture-15.pptx</t>
+  </si>
+  <si>
+    <t>convergence &amp; its absence</t>
+  </si>
+  <si>
+    <t>econ-135-zoom-2020-03-17-09.55.13-7584227890-convergence.zip</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-9a.pptx</t>
+  </si>
+  <si>
+    <t>capital markets</t>
+  </si>
+  <si>
+    <t>delong-baumol-archive.pdf</t>
+  </si>
+  <si>
+    <t>my 1988 anti-convergence are article</t>
+  </si>
+  <si>
+    <t>econ-115-zoom-2020-03-16-17.04.37-594152890-coronavirus.zip</t>
+  </si>
+  <si>
+    <t>lecture-1919-inevitability-&amp;-chance.pdf</t>
+  </si>
+  <si>
+    <t>wwi &amp; its outcome as a butterfly-flap crux of history</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-10.pptx</t>
+  </si>
+  <si>
+    <t>cold war</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-11.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false (&amp; true) starts to convergence in emerging markets </t>
+  </si>
+  <si>
+    <t>econ-115-lecture-12.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirty glorious years, 1945–1975 </t>
+  </si>
+  <si>
+    <t>econ-115-lecture-7.pptx</t>
+  </si>
+  <si>
+    <t>understanding the great depression</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-8.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternatives to let-it-alone marketism </t>
+  </si>
+  <si>
+    <t>econ-115-lecture-9.pptx</t>
+  </si>
+  <si>
+    <t>fascism &amp; wwii</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-11.pptx</t>
+  </si>
+  <si>
+    <t>why northwest europe?</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-12.pptx</t>
+  </si>
+  <si>
+    <t>modern economic growth</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-13.pptx</t>
+  </si>
+  <si>
+    <t>u.s. economic ascendancy (also: how america became the exceptional nation)</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-14.pptx</t>
+  </si>
+  <si>
+    <t>globalization advances &amp; retreats</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-8a.pptx</t>
+  </si>
+  <si>
+    <t>unfreedom</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-8b.pptx</t>
+  </si>
+  <si>
+    <t>women, men, &amp; children</t>
+  </si>
+  <si>
+    <t>lecture-american-exceptionalism.pdf</t>
+  </si>
+  <si>
+    <t>how america became the exceptional nation in the long 20th century (econ-135-lecture-13.pptx)</t>
+  </si>
+  <si>
+    <t>ps-judy-shelton-2020-03.pdf</t>
+  </si>
+  <si>
+    <t>importance of preserving technocratic chops of the fed</t>
+  </si>
+  <si>
+    <t>#ps</t>
+  </si>
+  <si>
+    <t>#ohb</t>
+  </si>
+  <si>
+    <t>ps-wealth-tax-2020-02.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decision between wealth, income, consumption taxes should be based on convenience of implementation </t>
+  </si>
+  <si>
+    <t>book-robert-allen-ir-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>book-selections-evans-embedded-i.pdf</t>
+  </si>
+  <si>
+    <t>peter evens: embedded autonomy—ch 1 of the go-to book on industrial policy</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-10.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the industrial revolution ii </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-8.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial revolutions </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-9.pptx</t>
+  </si>
+  <si>
+    <t>the industrial revolution i</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-5a.pptx</t>
+  </si>
+  <si>
+    <t>comparative development &amp; underdevelopment</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-5b.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern economic growth </t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-6a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-6b.pptx</t>
+  </si>
+  <si>
+    <t>econ-hist-grad-intro.pdf</t>
+  </si>
+  <si>
+    <t>syllabus &amp; reading list to graduate introduction to economic history course</t>
+  </si>
+  <si>
+    <t>lecture-neoliberalism.pptx</t>
+  </si>
+  <si>
+    <t>neoliberalism, state capacity, &amp; economic growth &amp; development: invited skema lecture</t>
   </si>
   <si>
     <t>article-clark-reading-note.pptx</t>
   </si>
   <si>
+    <t>article-diamond-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>article-steckel-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>book-selections-clark-farewell-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>book-selections-temin-reading-note.pptx</t>
+  </si>
+  <si>
+    <t>Econ 210a Spring 2020 Syllabus.pdf</t>
+  </si>
+  <si>
+    <t>DEPRECATED—replaced by econ-210a-syllabus.pdf</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-1.pptx</t>
+  </si>
+  <si>
+    <t>introduction &amp; themes</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-2.pptx</t>
+  </si>
+  <si>
+    <t>the watershed: globalization, &amp; the engine of growth</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-3.pptx</t>
+  </si>
+  <si>
+    <t>north atlantic political economy 1870-1914</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-4.pptx</t>
+  </si>
+  <si>
+    <t>empire &amp; war</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-5.pptx</t>
+  </si>
+  <si>
+    <t>trying to rebuild civilization after www</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-6.pptx</t>
+  </si>
+  <si>
+    <t>macroeconomic for beginners &amp; roaring twenties</t>
+  </si>
+  <si>
+    <t>econ-135-changeup-review-2-5-10-20.pptx</t>
+  </si>
+  <si>
+    <t>pre-midterm review</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-1.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the big picture: economic growth in historical perspective </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-2-outline-solow-theory.pptx</t>
+  </si>
+  <si>
+    <t>outline &amp; cheat sheet for the solow growth model</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-2.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theory: robert solow’s economic growth model </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-3-outline-malthusian-theory.pptx</t>
+  </si>
+  <si>
+    <t>outline &amp; cheat sheet for the malthusian growth model</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-3.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theory: the malthus-solow economic growth model </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-4.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theory: determinants of the rate of growth </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-5.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intensive economic growth’s absence in the malthusian agrarian age </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-6.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient empires: “efflorescences”, rises, &amp; falls </t>
+  </si>
+  <si>
+    <t>econ-135-lecture-7.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why was pre-industrial progress so slow on average? </t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-1.pptx</t>
+  </si>
+  <si>
+    <t>introduction to economic history &amp; malthusian economies</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-1a.pptx</t>
+  </si>
+  <si>
+    <t>introduction to economic history</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-1b.pptx</t>
+  </si>
+  <si>
+    <t>malthusian economies</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-2.pptx</t>
+  </si>
+  <si>
+    <t>technology &amp; organization in the very long run</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-2a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-2b.pptx</t>
+  </si>
+  <si>
+    <t>commercial revolutions</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-3a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-3b.pptx</t>
+  </si>
+  <si>
+    <t>industrial revolutions</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-4a.pptx</t>
+  </si>
+  <si>
+    <t>econ-210a-lecture-4b.pptx</t>
+  </si>
+  <si>
+    <t>module-gatherers-#Macro-#MRE.pptx</t>
+  </si>
+  <si>
+    <t>module-history-usefulness-#IEH-#TCEH-#AEH.pptx</t>
+  </si>
+  <si>
+    <t>module-malthusian-#MRE-d.pptx</t>
+  </si>
+  <si>
     <t>article-dasgupta-reading-note.pptx</t>
   </si>
   <si>
-    <t>article-diamond-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>#ieh</t>
-  </si>
-  <si>
     <t>article-diamond-mistake-reading-note.pptx</t>
   </si>
   <si>
@@ -73,423 +556,9 @@
     <t>article-pritchett-reading-note.pptx</t>
   </si>
   <si>
-    <t>article-steckel-reading-note.pptx</t>
-  </si>
-  <si>
     <t>book-gilgamesh-reading-note.pptx</t>
   </si>
   <si>
-    <t>book-selections-clark-farewell-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>book-selections-temin-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>coronavirus-state.xlsx</t>
-  </si>
-  <si>
-    <t>state-by-state coronavirus numbers</t>
-  </si>
-  <si>
-    <t>#corona</t>
-  </si>
-  <si>
-    <t>coronavirus.pptx</t>
-  </si>
-  <si>
-    <t>slides on coronavirus</t>
-  </si>
-  <si>
-    <t>delong-baumol-archive.pdf</t>
-  </si>
-  <si>
-    <t>my 1988 anti-convergence are article</t>
-  </si>
-  <si>
-    <t>delong-github-public-files-database</t>
-  </si>
-  <si>
-    <t>master file &amp; record for things in this directory</t>
-  </si>
-  <si>
-    <t>#index</t>
-  </si>
-  <si>
-    <t>Econ 210a Spring 2020 Syllabus.pdf</t>
-  </si>
-  <si>
-    <t>DEPRECATED—replaced by econ-210a-syllabus.pdf</t>
-  </si>
-  <si>
-    <t>econ-210a</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-1.pptx</t>
-  </si>
-  <si>
-    <t>introduction &amp; themes</t>
-  </si>
-  <si>
-    <t>.pdf</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-10.pptx</t>
-  </si>
-  <si>
-    <t>cold war</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-11.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false (&amp; true) starts to convergence in emerging markets </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-12.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirty glorious years, 1945–1975 </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-13.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social democracy: high tide &amp; ebb </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-14.pptx</t>
-  </si>
-  <si>
-    <t>the end of really existing socialism</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-15.pptx</t>
-  </si>
-  <si>
-    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf)</t>
-  </si>
-  <si>
-    <t>#heg</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-2.pptx</t>
-  </si>
-  <si>
-    <t>the watershed: globalization, &amp; the engine of growth</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-3.pptx</t>
-  </si>
-  <si>
-    <t>north atlantic political economy 1870-1914</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-4.pptx</t>
-  </si>
-  <si>
-    <t>empire &amp; war</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-5.pptx</t>
-  </si>
-  <si>
-    <t>trying to rebuild civilization after www</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-6.pptx</t>
-  </si>
-  <si>
-    <t>macroeconomic for beginners &amp; roaring twenties</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-7.pptx</t>
-  </si>
-  <si>
-    <t>understanding the great depression</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-8.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alternatives to let-it-alone marketism </t>
-  </si>
-  <si>
-    <t>econ-115-lecture-9.pptx</t>
-  </si>
-  <si>
-    <t>fascism &amp; wwii</t>
-  </si>
-  <si>
-    <t>econ-135-changeup-review-2-5-10-20.pptx</t>
-  </si>
-  <si>
-    <t>pre-midterm review</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-1.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the big picture: economic growth in historical perspective </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-10.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the industrial revolution ii </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-11.pptx</t>
-  </si>
-  <si>
-    <t>why northwest europe?</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-12.pptx</t>
-  </si>
-  <si>
-    <t>modern economic growth</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-13.pptx</t>
-  </si>
-  <si>
-    <t>u.s. economic ascendancy (also: how america became the exceptional nation)</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-14.pptx</t>
-  </si>
-  <si>
-    <t>globalization advances &amp; retreats</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-15.pptx</t>
-  </si>
-  <si>
-    <t>convergence &amp; its absence</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-16.pptx</t>
-  </si>
-  <si>
-    <t>inequality &amp; plutocracy (also: lecture-inequality.pptx, lecture-inequality-text.pdf</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-17.pptx</t>
-  </si>
-  <si>
-    <t>the development of underdevelopment: explication of lewis: evolution</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-2-outline-solow-theory.pptx</t>
-  </si>
-  <si>
-    <t>outline &amp; cheat sheet for the solow growth model</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-2.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theory: robert solow’s economic growth model </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-3-outline-malthusian-theory.pptx</t>
-  </si>
-  <si>
-    <t>outline &amp; cheat sheet for the malthusian growth model</t>
-  </si>
-  <si>
-    <t>econ-135-lecture-3.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theory: the malthus-solow economic growth model </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-4.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theory: determinants of the rate of growth </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-5.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intensive economic growth’s absence in the malthusian agrarian age </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-6.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient empires: “efflorescences”, rises, &amp; falls </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-7.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why was pre-industrial progress so slow on average? </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-8.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commercial revolutions </t>
-  </si>
-  <si>
-    <t>econ-135-lecture-9.pptx</t>
-  </si>
-  <si>
-    <t>the industrial revolution i</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-1.pptx</t>
-  </si>
-  <si>
-    <t>introduction to economic history &amp; malthusian economies</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-1a.pptx</t>
-  </si>
-  <si>
-    <t>introduction to economic history</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-1b.pptx</t>
-  </si>
-  <si>
-    <t>malthusian economies</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-2.pptx</t>
-  </si>
-  <si>
-    <t>technology &amp; organization in the very long run</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-2a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-2b.pptx</t>
-  </si>
-  <si>
-    <t>commercial revolutions</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-3a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-3b.pptx</t>
-  </si>
-  <si>
-    <t>industrial revolutions</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-4a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-4b.pptx</t>
-  </si>
-  <si>
-    <t>comparative development &amp; underdevelopment</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-5a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-5b.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern economic growth </t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-6a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-6b.pptx</t>
-  </si>
-  <si>
-    <t>unfreedom</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-8a.pptx</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-8b.pptx</t>
-  </si>
-  <si>
-    <t>women, men, &amp; children</t>
-  </si>
-  <si>
-    <t>econ-210a-lecture-9a.pptx</t>
-  </si>
-  <si>
-    <t>capital markets</t>
-  </si>
-  <si>
-    <t>econ-210a-syllabus.pdf</t>
-  </si>
-  <si>
-    <t>updated syllabus &amp; reading list to graduate introduction to economic history course</t>
-  </si>
-  <si>
-    <t>book-selections-evans-embedded-i.pdf</t>
-  </si>
-  <si>
-    <t>peter evens: embedded autonomy—ch 1 of the go-to book on industrial policy</t>
-  </si>
-  <si>
-    <t>econ-hist-grad-intro.pdf</t>
-  </si>
-  <si>
-    <t>syllabus &amp; reading list to graduate introduction to economic history course</t>
-  </si>
-  <si>
-    <t>ps-judy-shelton-2020-03.pdf</t>
-  </si>
-  <si>
-    <t>importance of preserving technocratic chops of the fed</t>
-  </si>
-  <si>
-    <t>#ps</t>
-  </si>
-  <si>
-    <t>#ohb</t>
-  </si>
-  <si>
-    <t>lecture-1919-inevitability-&amp;-chance.pdf</t>
-  </si>
-  <si>
-    <t>wwi &amp; its outcome as a butterfly-flap crux of history</t>
-  </si>
-  <si>
-    <t>lecture-american-exceptionalism.pdf</t>
-  </si>
-  <si>
-    <t>how america became the exceptional nation in the long 20th century (econ-135-lecture-13.pptx)</t>
-  </si>
-  <si>
-    <t>lecture-development-of-underdevelopment-text.pdf</t>
-  </si>
-  <si>
-    <t>lecture text to econ-135-lecture-17.pptx</t>
-  </si>
-  <si>
-    <t>lecture-inequality-text.pdf</t>
-  </si>
-  <si>
-    <t>invited lecture (brown)—text (also slides available0)</t>
-  </si>
-  <si>
-    <t>lecture-inequality.pptx</t>
-  </si>
-  <si>
-    <t>invited lecture (brown)—slides (also text available)</t>
-  </si>
-  <si>
-    <t>lecture-neoliberal-turn-text.pdf</t>
-  </si>
-  <si>
-    <t>the neoliberal turn (also econ-115-lecture-15.pptx)</t>
-  </si>
-  <si>
     <t>book-lewis-evolution-a.pdf</t>
   </si>
   <si>
@@ -503,36 +572,6 @@
   </si>
   <si>
     <t>w. arthur lewis: evolution of the international economic order ii</t>
-  </si>
-  <si>
-    <t>module-gatherers-#Macro-#MRE.pptx</t>
-  </si>
-  <si>
-    <t>module-history-usefulness-#IEH-#TCEH-#AEH.pptx</t>
-  </si>
-  <si>
-    <t>module-malthusian-#MRE-d.pptx</t>
-  </si>
-  <si>
-    <t>lecture-neoliberalism.pptx</t>
-  </si>
-  <si>
-    <t>neoliberalism, state capacity, &amp; economic growth &amp; development: invited skema lecture</t>
-  </si>
-  <si>
-    <t>book-robert-allen-ir-reading-note.pptx</t>
-  </si>
-  <si>
-    <t>us-coronavirus-deaths.xlsx</t>
-  </si>
-  <si>
-    <t>u.s. coronavirus deaths by date</t>
-  </si>
-  <si>
-    <t>ps-wealth-tax-2020-02.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decision between wealth, income, consumption taxes should be based on convenience of implementation </t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:M91"/>
+  <dimension ref="A2:O95"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1843,7 +1882,9 @@
     <col min="7" max="7" width="6.86719" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.70312" style="1" customWidth="1"/>
     <col min="9" max="13" width="6.86719" style="1" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8438" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.86719" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1862,6 +1903,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1879,101 +1922,135 @@
       <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="F2" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="M2" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>43906</v>
-      </c>
-      <c r="E3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="9">
-        <v>9</v>
-      </c>
+        <v>43921</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13">
-        <v>43907</v>
+        <v>43921</v>
       </c>
       <c r="E4" t="s" s="14">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
+      <c r="N4" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13">
-        <v>43908</v>
+        <v>43921</v>
       </c>
       <c r="E5" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="B6" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>24</v>
+      </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E6" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1981,117 +2058,169 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>27</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>22</v>
+      </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D8" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E8" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H8" s="12"/>
-      <c r="I8" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>32</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>33</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" t="s" s="14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B10" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>35</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E10" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="I10" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="B11" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>37</v>
+      </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <v>43851</v>
+        <v>43920</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" t="s" s="14">
+        <v>8</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D12" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+        <v>43920</v>
+      </c>
+      <c r="E12" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -2099,93 +2228,125 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="B13" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>41</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13">
-        <v>43851</v>
+        <v>43920</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" t="s" s="14">
+        <v>8</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13">
+        <v>43919</v>
+      </c>
+      <c r="E14" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="G14" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="B15" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>45</v>
+      </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E15" s="12"/>
+        <v>43919</v>
+      </c>
+      <c r="E15" t="s" s="14">
+        <v>22</v>
+      </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="D16" s="13">
+        <v>43916</v>
+      </c>
+      <c r="E16" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="F16" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G16" s="12"/>
-      <c r="H16" t="s" s="14">
-        <v>26</v>
-      </c>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13">
@@ -2195,101 +2356,121 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" t="s" s="14">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E18" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E18" t="s" s="14">
+        <v>22</v>
+      </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="G18" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="J18" t="s" s="14">
+        <v>10</v>
+      </c>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="C19" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D19" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E19" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E19" t="s" s="14">
+        <v>22</v>
+      </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="G19" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="J19" t="s" s="14">
+        <v>10</v>
+      </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" t="s" s="14">
-        <v>33</v>
-      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="C20" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="C20" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D20" s="13">
-        <v>43875</v>
+        <v>43909</v>
       </c>
       <c r="E20" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="G20" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H20" s="12"/>
-      <c r="I20" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="13">
-        <v>43875</v>
+        <v>43908</v>
       </c>
       <c r="E21" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -2298,52 +2479,54 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="11">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D22" s="13">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="E22" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="G22" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="13">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="E23" t="s" s="14">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -2352,53 +2535,51 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D24" s="13">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="E24" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s" s="14">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="I24" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E25" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s" s="14">
-        <v>9</v>
-      </c>
+        <v>43906</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -2406,25 +2587,25 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="13">
-        <v>43916</v>
+        <v>43906</v>
       </c>
       <c r="E26" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2433,54 +2614,54 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="13">
-        <v>43921</v>
+        <v>43904</v>
       </c>
       <c r="E27" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s" s="14">
-        <v>52</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s" s="11">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D28" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E28" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2489,25 +2670,27 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s" s="11">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D29" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E29" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2516,25 +2699,27 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s" s="11">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D30" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E30" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2543,25 +2728,27 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s" s="11">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D31" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E31" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2570,25 +2757,27 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s" s="11">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D32" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E32" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2597,25 +2786,27 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s" s="11">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D33" s="13">
         <v>43903</v>
       </c>
       <c r="E33" t="s" s="14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2624,80 +2815,86 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s" s="11">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D34" s="13">
         <v>43903</v>
       </c>
       <c r="E34" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="G34" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s" s="11">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D35" s="13">
         <v>43903</v>
       </c>
       <c r="E35" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="G35" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s" s="11">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D36" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E36" t="s" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" t="s" s="14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -2705,26 +2902,28 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s" s="11">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D37" s="13">
-        <v>43875</v>
+        <v>43903</v>
       </c>
       <c r="E37" t="s" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" t="s" s="14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -2732,80 +2931,86 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s" s="11">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D38" s="13">
-        <v>43888</v>
+        <v>43903</v>
       </c>
       <c r="E38" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="I38" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s" s="11">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D39" s="13">
         <v>43903</v>
       </c>
       <c r="E39" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="I39" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s" s="11">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="13">
         <v>43903</v>
       </c>
       <c r="E40" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="F40" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F40" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G40" t="s" s="14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -2813,134 +3018,124 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="10">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C41" s="12"/>
       <c r="D41" s="13">
         <v>43903</v>
       </c>
-      <c r="E41" t="s" s="14">
-        <v>11</v>
-      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="J41" t="s" s="14">
+        <v>96</v>
+      </c>
       <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="L41" t="s" s="14">
+        <v>97</v>
+      </c>
       <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="10">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s" s="11">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="13">
         <v>43903</v>
       </c>
-      <c r="E42" t="s" s="14">
-        <v>11</v>
-      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="J42" t="s" s="14">
+        <v>96</v>
+      </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s" s="11">
-        <v>84</v>
-      </c>
-      <c r="C43" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="13">
-        <v>43907</v>
-      </c>
-      <c r="E43" t="s" s="14">
-        <v>11</v>
-      </c>
+        <v>43888</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s" s="11">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C44" s="12"/>
       <c r="D44" s="13">
-        <v>43909</v>
-      </c>
-      <c r="E44" t="s" s="14">
-        <v>11</v>
-      </c>
+        <v>43888</v>
+      </c>
+      <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="10">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s" s="11">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D45" s="13">
-        <v>43919</v>
+        <v>43888</v>
       </c>
       <c r="E45" t="s" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" t="s" s="14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -2948,26 +3143,28 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="10">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s" s="11">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D46" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E46" t="s" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" t="s" s="14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -2975,26 +3172,28 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="10">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s" s="11">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D47" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E47" t="s" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" t="s" s="14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -3002,1004 +3201,1068 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="10">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s" s="11">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D48" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E48" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="I48" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="10">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s" s="11">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D49" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E49" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G49" s="12"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="I49" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="10">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s" s="11">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D50" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E50" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="I50" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="10">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s" s="11">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D51" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E51" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F51" s="12"/>
-      <c r="G51" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="I51" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="10">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C52" s="12"/>
       <c r="D52" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E52" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F52" s="12"/>
-      <c r="G52" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="I52" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="10">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s" s="11">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C53" s="12"/>
       <c r="D53" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E53" t="s" s="14">
-        <v>11</v>
-      </c>
+        <v>43888</v>
+      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="J53" t="s" s="14">
+        <v>10</v>
+      </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="B54" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="C54" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E54" t="s" s="14">
-        <v>11</v>
-      </c>
+        <v>43875</v>
+      </c>
+      <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s" s="11">
-        <v>108</v>
-      </c>
-      <c r="C55" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E55" t="s" s="14">
-        <v>11</v>
-      </c>
+        <v>43875</v>
+      </c>
+      <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="I55" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="B56" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="C56" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="13">
         <v>43875</v>
       </c>
-      <c r="E56" t="s" s="14">
-        <v>36</v>
-      </c>
+      <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s" s="11">
-        <v>112</v>
-      </c>
-      <c r="C57" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="13">
         <v>43875</v>
       </c>
-      <c r="E57" t="s" s="14">
-        <v>36</v>
-      </c>
+      <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="I57" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="C58" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="13">
         <v>43875</v>
       </c>
-      <c r="E58" t="s" s="14">
-        <v>36</v>
-      </c>
+      <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="C59" t="s" s="14">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C59" s="12"/>
       <c r="D59" s="13">
         <v>43875</v>
       </c>
       <c r="E59" t="s" s="14">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" t="s" s="14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="10">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s" s="11">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D60" s="13">
         <v>43875</v>
       </c>
       <c r="E60" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="F60" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F60" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-      <c r="I60" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="10">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s" s="11">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D61" s="13">
         <v>43875</v>
       </c>
       <c r="E61" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="F61" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F61" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="I61" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="10">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s" s="11">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D62" s="13">
         <v>43875</v>
       </c>
       <c r="E62" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="F62" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F62" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="I62" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="10">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s" s="11">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D63" s="13">
         <v>43875</v>
       </c>
       <c r="E63" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="F63" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F63" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="I63" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="10">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s" s="11">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D64" s="13">
         <v>43875</v>
       </c>
       <c r="E64" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="F64" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F64" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="10">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s" s="11">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D65" s="13">
         <v>43875</v>
       </c>
       <c r="E65" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="F65" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F65" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="10">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s" s="11">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D66" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E66" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="G66" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H66" s="12"/>
-      <c r="I66" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="10">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s" s="11">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D67" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E67" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="G67" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H67" s="12"/>
-      <c r="I67" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="10">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s" s="11">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D68" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E68" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="G68" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H68" s="12"/>
-      <c r="I68" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="10">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s" s="11">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D69" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E69" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="G69" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H69" s="12"/>
-      <c r="I69" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="10">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s" s="11">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D70" s="13">
-        <v>43903</v>
+        <v>43875</v>
       </c>
       <c r="E70" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="G70" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H70" s="12"/>
-      <c r="I70" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="10">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s" s="11">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D71" s="13">
-        <v>43903</v>
+        <v>43875</v>
       </c>
       <c r="E71" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="G71" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H71" s="12"/>
-      <c r="I71" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="10">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s" s="11">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D72" s="13">
-        <v>43907</v>
+        <v>43875</v>
       </c>
       <c r="E72" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="G72" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H72" s="12"/>
-      <c r="I72" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="10">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s" s="11">
-        <v>138</v>
-      </c>
-      <c r="C73" s="12"/>
+        <v>153</v>
+      </c>
+      <c r="C73" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D73" s="13">
-        <v>43907</v>
+        <v>43875</v>
       </c>
       <c r="E73" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="G73" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H73" s="12"/>
-      <c r="I73" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="10">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s" s="11">
-        <v>140</v>
-      </c>
-      <c r="C74" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="C74" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D74" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E74" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E74" t="s" s="14">
+        <v>22</v>
+      </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="G74" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="10">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s" s="11">
-        <v>142</v>
-      </c>
-      <c r="C75" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="C75" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D75" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E75" t="s" s="14">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="G75" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H75" s="12"/>
-      <c r="I75" t="s" s="14">
-        <v>16</v>
-      </c>
+      <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="10">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="C76" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="C76" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D76" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E76" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E76" t="s" s="14">
+        <v>33</v>
+      </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" t="s" s="14">
-        <v>145</v>
-      </c>
+      <c r="I76" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J76" s="12"/>
       <c r="K76" s="12"/>
-      <c r="L76" t="s" s="14">
-        <v>146</v>
-      </c>
+      <c r="L76" s="12"/>
       <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="10">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B77" t="s" s="11">
-        <v>148</v>
-      </c>
-      <c r="C77" s="12"/>
+        <v>161</v>
+      </c>
+      <c r="C77" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D77" s="13">
-        <v>43904</v>
+        <v>43875</v>
       </c>
       <c r="E77" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s" s="14">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
+      <c r="I77" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="10">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s" s="11">
-        <v>150</v>
-      </c>
-      <c r="C78" s="12"/>
+        <v>163</v>
+      </c>
+      <c r="C78" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D78" s="13">
-        <v>43903</v>
+        <v>43875</v>
       </c>
       <c r="E78" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="F78" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G78" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="10">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s" s="11">
-        <v>152</v>
-      </c>
-      <c r="C79" s="12"/>
+        <v>165</v>
+      </c>
+      <c r="C79" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D79" s="13">
-        <v>43919</v>
+        <v>43875</v>
       </c>
       <c r="E79" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F79" s="12"/>
-      <c r="G79" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
+      <c r="I79" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="10">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s" s="11">
-        <v>154</v>
-      </c>
-      <c r="C80" s="12"/>
+        <v>165</v>
+      </c>
+      <c r="C80" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D80" s="13">
-        <v>43912</v>
+        <v>43875</v>
       </c>
       <c r="E80" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
+      <c r="I80" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="10">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s" s="11">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s" s="14">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D81" s="13">
-        <v>43912</v>
+        <v>43875</v>
       </c>
       <c r="E81" t="s" s="14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" t="s" s="14">
-        <v>52</v>
-      </c>
+      <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
+      <c r="I81" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="10">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s" s="11">
-        <v>158</v>
-      </c>
-      <c r="C82" s="12"/>
+        <v>168</v>
+      </c>
+      <c r="C82" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D82" s="13">
-        <v>43921</v>
+        <v>43875</v>
       </c>
       <c r="E82" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="G82" t="s" s="14">
-        <v>52</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" t="s" s="14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="10">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s" s="11">
-        <v>160</v>
-      </c>
-      <c r="C83" s="12"/>
+        <v>171</v>
+      </c>
+      <c r="C83" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D83" s="13">
-        <v>41424</v>
-      </c>
-      <c r="E83" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E83" t="s" s="14">
+        <v>33</v>
+      </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="I83" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J83" s="12"/>
-      <c r="K83" t="s" s="14">
-        <v>161</v>
-      </c>
+      <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="10">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s" s="11">
-        <v>163</v>
-      </c>
-      <c r="C84" s="12"/>
+        <v>171</v>
+      </c>
+      <c r="C84" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D84" s="13">
-        <v>39543</v>
-      </c>
-      <c r="E84" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E84" t="s" s="14">
+        <v>33</v>
+      </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
+      <c r="I84" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J84" s="12"/>
-      <c r="K84" t="s" s="14">
-        <v>161</v>
-      </c>
+      <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="10">
-        <v>164</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="B85" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="C85" t="s" s="14">
+        <v>30</v>
+      </c>
       <c r="D85" s="13">
         <v>43875</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" t="s" s="14">
+        <v>33</v>
+      </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="I85" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="12"/>
@@ -4015,10 +4278,12 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="12"/>
@@ -4034,17 +4299,17 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="10">
-        <v>167</v>
-      </c>
-      <c r="B88" t="s" s="11">
-        <v>168</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B88" s="15"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -4055,15 +4320,17 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="10">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13">
-        <v>43888</v>
+        <v>43851</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -4074,56 +4341,148 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="10">
-        <v>170</v>
-      </c>
-      <c r="B90" t="s" s="11">
-        <v>171</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B90" s="15"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13">
-        <v>43920</v>
+        <v>43851</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
-      <c r="H90" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="I90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="10">
-        <v>172</v>
-      </c>
-      <c r="B91" t="s" s="11">
-        <v>173</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B91" s="15"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13">
-        <v>43903</v>
+        <v>43851</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
-      <c r="J91" t="s" s="14">
-        <v>145</v>
-      </c>
+      <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+    </row>
+    <row r="92" ht="20.05" customHeight="1">
+      <c r="A92" t="s" s="10">
+        <v>180</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+    </row>
+    <row r="93" ht="20.05" customHeight="1">
+      <c r="A93" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+    </row>
+    <row r="94" ht="20.05" customHeight="1">
+      <c r="A94" t="s" s="10">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s" s="11">
+        <v>183</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="13">
+        <v>41424</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+    </row>
+    <row r="95" ht="20.05" customHeight="1">
+      <c r="A95" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s" s="11">
+        <v>186</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13">
+        <v>39543</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" t="s" s="14">
+        <v>184</v>
+      </c>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/delong-github-public-files-database.xlsx
+++ b/delong-github-public-files-database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
   <si>
     <t>Table 1</t>
   </si>
@@ -61,12 +61,48 @@
     <t>master file &amp; record for things in this directory</t>
   </si>
   <si>
+    <t>econ-210a-lecture-10a.pptx</t>
+  </si>
+  <si>
+    <t>intro econ hist coronavirus &amp; keynes lecture; zoom file on typepad</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>econ-210a</t>
+  </si>
+  <si>
+    <t>econ-115-zoom-2020-04-01-17.04.19-615210063.zip</t>
+  </si>
+  <si>
+    <t>zoom file for decline &amp; fall of really existing socialism: econ-115-lecture-16.pptx</t>
+  </si>
+  <si>
+    <t>econ-115</t>
+  </si>
+  <si>
+    <t>longest-run-growth.xlsx</t>
+  </si>
+  <si>
+    <t>spreadsheet for h calculations</t>
+  </si>
+  <si>
+    <t>coronavirus.pptx</t>
+  </si>
+  <si>
+    <t>coronavirus presentations</t>
+  </si>
+  <si>
     <t>lecture-notes-smith-marx-keynes.pdf</t>
   </si>
   <si>
     <t>not quite finished lecture notes for history of economic thought “great books” course: 44000 words</t>
   </si>
   <si>
+    <t>.epub</t>
+  </si>
+  <si>
     <t>econ-105</t>
   </si>
   <si>
@@ -88,9 +124,6 @@
     <t>2020-03-30 zoom lecture q&amp;a session for econ 115: twentieth century economic history</t>
   </si>
   <si>
-    <t>econ-115</t>
-  </si>
-  <si>
     <t>econ-135-zoom-2020-03-31-10.05.17-620006822.zip</t>
   </si>
   <si>
@@ -100,10 +133,7 @@
     <t>econ-115-lecture-15.pptx</t>
   </si>
   <si>
-    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf)</t>
-  </si>
-  <si>
-    <t>.pdf</t>
+    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf); Apr 06 &amp; 08</t>
   </si>
   <si>
     <t>econ-210a-syllabus.pdf</t>
@@ -112,9 +142,6 @@
     <t>updated syllabus &amp; reading list to graduate introduction to economic history course</t>
   </si>
   <si>
-    <t>econ-210a</t>
-  </si>
-  <si>
     <t>lecture-neoliberal-turn-text.pdf</t>
   </si>
   <si>
@@ -130,7 +157,7 @@
     <t>econ-115-lecture-13.pptx</t>
   </si>
   <si>
-    <t xml:space="preserve">social democracy: high tide &amp; ebb </t>
+    <t>social democracy: high tide &amp; ebb; Mar 30</t>
   </si>
   <si>
     <t>us-coronavirus-deaths.xlsx</t>
@@ -142,7 +169,7 @@
     <t>econ-135-lecture-17.pptx</t>
   </si>
   <si>
-    <t>the development of underdevelopment: explication of lewis: evolution</t>
+    <t>the development of underdevelopment: explication of lewis: evolution; Mar 31</t>
   </si>
   <si>
     <t>lecture-development-of-underdevelopment-text.pdf</t>
@@ -154,10 +181,7 @@
     <t>econ-115-lecture-14.pptx</t>
   </si>
   <si>
-    <t>the end of really existing socialism</t>
-  </si>
-  <si>
-    <t>coronavirus.pptx</t>
+    <t>the end of really existing socialism; Apr 01</t>
   </si>
   <si>
     <t>slides on coronavirus</t>
@@ -178,7 +202,7 @@
     <t>econ-135-lecture-16.pptx</t>
   </si>
   <si>
-    <t>inequality &amp; plutocracy (also: lecture-inequality.pptx, lecture-inequality-text.pdf</t>
+    <t>inequality &amp; plutocracy (also: lecture-inequality.pptx, lecture-inequality-text.pdf; Mar 19</t>
   </si>
   <si>
     <t>econ-115-zoom-2020-03-18-17.00.52-594152890.zip</t>
@@ -190,7 +214,7 @@
     <t>econ-135-lecture-15.pptx</t>
   </si>
   <si>
-    <t>convergence &amp; its absence</t>
+    <t>convergence &amp; its absence; Mar 17</t>
   </si>
   <si>
     <t>econ-135-zoom-2020-03-17-09.55.13-7584227890-convergence.zip</t>
@@ -776,13 +800,13 @@
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1867,7 +1891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O95"/>
+  <dimension ref="A2:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1958,7 +1982,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1981,31 +2005,27 @@
       <c r="B4" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D4" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E4" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s" s="14">
+        <v>43922</v>
+      </c>
+      <c r="E4" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" t="s" s="14">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="O4" s="12"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
@@ -2014,25 +2034,25 @@
       <c r="B5" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E5" t="s" s="14">
+        <v>43922</v>
+      </c>
+      <c r="E5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="F5" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
@@ -2041,446 +2061,442 @@
       <c r="B6" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+        <v>43922</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="B7" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="C7" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D7" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E7" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+        <v>43922</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="C8" t="s" s="12">
         <v>29</v>
-      </c>
-      <c r="C8" t="s" s="14">
-        <v>30</v>
       </c>
       <c r="D8" s="13">
         <v>43921</v>
       </c>
-      <c r="E8" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s" s="14">
+      <c r="E8" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G8" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="G8" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="13">
         <v>43921</v>
       </c>
-      <c r="E9" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="E9" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="13">
         <v>43921</v>
       </c>
-      <c r="E10" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s" s="14">
+      <c r="E10" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G10" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D12" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s" s="14">
+        <v>43922</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="G12" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s" s="14">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="13">
-        <v>43919</v>
-      </c>
-      <c r="E14" t="s" s="14">
+        <v>43921</v>
+      </c>
+      <c r="E14" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="F14" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="13">
-        <v>43919</v>
-      </c>
-      <c r="E15" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+        <v>43920</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D16" s="13">
-        <v>43916</v>
-      </c>
-      <c r="E16" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s" s="14">
+        <v>43920</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" t="s" s="14">
+        <v>43920</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D18" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E18" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+        <v>43919</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s" s="14">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E19" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+        <v>43919</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s" s="14">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D20" s="13">
-        <v>43909</v>
-      </c>
-      <c r="E20" t="s" s="14">
+        <v>43922</v>
+      </c>
+      <c r="E20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="F20" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="13">
-        <v>43908</v>
-      </c>
-      <c r="E21" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
@@ -2489,247 +2505,249 @@
       <c r="B22" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="C22" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="C22" s="14"/>
       <c r="D22" s="13">
-        <v>43907</v>
-      </c>
-      <c r="E22" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
         <v>60</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D23" s="13">
-        <v>43907</v>
-      </c>
-      <c r="E23" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s" s="14">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D24" s="13">
-        <v>43907</v>
-      </c>
-      <c r="E24" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+        <v>43909</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="C25" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+        <v>43908</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="C26" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D26" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E26" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+        <v>43907</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s" s="11">
-        <v>67</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="13">
-        <v>43904</v>
-      </c>
-      <c r="E27" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s" s="14">
+        <v>43907</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s" s="14">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D28" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E28" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
+        <v>43907</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s" s="14">
-        <v>30</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E29" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F29" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+        <v>43906</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s" s="14">
-        <v>30</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C30" s="14"/>
       <c r="D30" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E30" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s" s="14">
+        <v>43906</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
@@ -2738,27 +2756,25 @@
       <c r="B31" t="s" s="11">
         <v>75</v>
       </c>
-      <c r="C31" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="C31" s="14"/>
       <c r="D31" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E31" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s" s="14">
+        <v>43904</v>
+      </c>
+      <c r="E31" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
@@ -2767,27 +2783,27 @@
       <c r="B32" t="s" s="11">
         <v>77</v>
       </c>
-      <c r="C32" t="s" s="14">
-        <v>30</v>
+      <c r="C32" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D32" s="13">
         <v>43903</v>
       </c>
-      <c r="E32" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s" s="14">
+      <c r="E32" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
@@ -2796,27 +2812,27 @@
       <c r="B33" t="s" s="11">
         <v>79</v>
       </c>
-      <c r="C33" t="s" s="14">
-        <v>30</v>
+      <c r="C33" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D33" s="13">
         <v>43903</v>
       </c>
-      <c r="E33" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F33" t="s" s="14">
+      <c r="E33" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
@@ -2825,27 +2841,27 @@
       <c r="B34" t="s" s="11">
         <v>81</v>
       </c>
-      <c r="C34" t="s" s="14">
-        <v>30</v>
+      <c r="C34" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D34" s="13">
         <v>43903</v>
       </c>
-      <c r="E34" t="s" s="14">
+      <c r="E34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="F34" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
@@ -2854,27 +2870,27 @@
       <c r="B35" t="s" s="11">
         <v>83</v>
       </c>
-      <c r="C35" t="s" s="14">
-        <v>30</v>
+      <c r="C35" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D35" s="13">
         <v>43903</v>
       </c>
-      <c r="E35" t="s" s="14">
+      <c r="E35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="F35" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
@@ -2883,27 +2899,27 @@
       <c r="B36" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="C36" t="s" s="14">
-        <v>30</v>
+      <c r="C36" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D36" s="13">
         <v>43903</v>
       </c>
-      <c r="E36" t="s" s="14">
+      <c r="E36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="F36" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="10">
@@ -2912,27 +2928,27 @@
       <c r="B37" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="C37" t="s" s="14">
-        <v>30</v>
+      <c r="C37" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D37" s="13">
         <v>43903</v>
       </c>
-      <c r="E37" t="s" s="14">
+      <c r="E37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="F37" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
@@ -2941,27 +2957,27 @@
       <c r="B38" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="C38" t="s" s="14">
-        <v>30</v>
+      <c r="C38" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D38" s="13">
         <v>43903</v>
       </c>
-      <c r="E38" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="E38" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
@@ -2970,27 +2986,27 @@
       <c r="B39" t="s" s="11">
         <v>91</v>
       </c>
-      <c r="C39" t="s" s="14">
-        <v>30</v>
+      <c r="C39" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D39" s="13">
         <v>43903</v>
       </c>
-      <c r="E39" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
+      <c r="E39" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
@@ -2999,27 +3015,27 @@
       <c r="B40" t="s" s="11">
         <v>93</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D40" s="13">
         <v>43903</v>
       </c>
-      <c r="E40" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G40" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="E40" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="10">
@@ -3028,181 +3044,187 @@
       <c r="B41" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="C41" s="12"/>
+      <c r="C41" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D41" s="13">
         <v>43903</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" t="s" s="14">
-        <v>96</v>
-      </c>
-      <c r="K41" s="12"/>
-      <c r="L41" t="s" s="14">
-        <v>97</v>
-      </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="E41" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="10">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="C42" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="C42" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D42" s="13">
         <v>43903</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" t="s" s="14">
-        <v>96</v>
-      </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="E42" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="B43" t="s" s="11">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D43" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+        <v>43903</v>
+      </c>
+      <c r="E43" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="B44" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+        <v>43903</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s" s="11">
         <v>103</v>
       </c>
-      <c r="B45" t="s" s="11">
+      <c r="C45" s="14"/>
+      <c r="D45" s="13">
+        <v>43903</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" t="s" s="12">
         <v>104</v>
       </c>
-      <c r="C45" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="D45" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E45" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+      <c r="K45" s="14"/>
+      <c r="L45" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s" s="14">
-        <v>30</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C46" s="14"/>
       <c r="D46" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E46" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+        <v>43903</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" t="s" s="12">
+        <v>104</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="B47" t="s" s="11">
         <v>108</v>
       </c>
-      <c r="C47" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="13">
         <v>43888</v>
       </c>
-      <c r="E47" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="10">
@@ -3211,27 +3233,21 @@
       <c r="B48" t="s" s="11">
         <v>110</v>
       </c>
-      <c r="C48" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="13">
         <v>43888</v>
       </c>
-      <c r="E48" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="10">
@@ -3240,358 +3256,360 @@
       <c r="B49" t="s" s="11">
         <v>112</v>
       </c>
-      <c r="C49" t="s" s="14">
-        <v>30</v>
+      <c r="C49" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D49" s="13">
         <v>43888</v>
       </c>
-      <c r="E49" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+      <c r="E49" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="10">
         <v>113</v>
       </c>
       <c r="B50" t="s" s="11">
-        <v>112</v>
-      </c>
-      <c r="C50" t="s" s="14">
-        <v>30</v>
+        <v>114</v>
+      </c>
+      <c r="C50" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D50" s="13">
         <v>43888</v>
       </c>
-      <c r="E50" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+      <c r="E50" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="C51" t="s" s="14">
-        <v>30</v>
+        <v>116</v>
+      </c>
+      <c r="C51" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D51" s="13">
         <v>43888</v>
       </c>
-      <c r="E51" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
+      <c r="E51" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="C52" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="C52" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D52" s="13">
         <v>43888</v>
       </c>
-      <c r="E52" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" t="s" s="14">
+      <c r="E52" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s" s="11">
-        <v>118</v>
-      </c>
-      <c r="C53" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="C53" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D53" s="13">
         <v>43888</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
+      <c r="E53" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="10">
-        <v>119</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="B54" t="s" s="11">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D54" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E54" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="B55" t="s" s="11">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D55" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" t="s" s="14">
+        <v>43888</v>
+      </c>
+      <c r="E55" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="10">
-        <v>121</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="B56" t="s" s="11">
+        <v>124</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E56" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="B57" t="s" s="11">
+        <v>126</v>
+      </c>
+      <c r="C57" s="14"/>
       <c r="D57" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="10">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B58" s="15"/>
-      <c r="C58" s="12"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="13">
         <v>43875</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="B59" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="C59" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="13">
         <v>43875</v>
       </c>
-      <c r="E59" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" t="s" s="14">
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s" s="11">
-        <v>127</v>
-      </c>
-      <c r="C60" t="s" s="14">
-        <v>30</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="13">
         <v>43875</v>
       </c>
-      <c r="E60" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F60" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="B61" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="C61" t="s" s="14">
-        <v>30</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="13">
         <v>43875</v>
       </c>
-      <c r="E61" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F61" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="B62" t="s" s="11">
         <v>131</v>
       </c>
-      <c r="C62" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="13">
         <v>43875</v>
       </c>
-      <c r="E62" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F62" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="10">
@@ -3600,27 +3618,25 @@
       <c r="B63" t="s" s="11">
         <v>133</v>
       </c>
-      <c r="C63" t="s" s="14">
-        <v>30</v>
-      </c>
+      <c r="C63" s="14"/>
       <c r="D63" s="13">
         <v>43875</v>
       </c>
-      <c r="E63" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F63" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
+      <c r="E63" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="10">
@@ -3629,27 +3645,27 @@
       <c r="B64" t="s" s="11">
         <v>135</v>
       </c>
-      <c r="C64" t="s" s="14">
-        <v>30</v>
+      <c r="C64" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D64" s="13">
         <v>43875</v>
       </c>
-      <c r="E64" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F64" t="s" s="14">
+      <c r="E64" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="10">
@@ -3658,27 +3674,27 @@
       <c r="B65" t="s" s="11">
         <v>137</v>
       </c>
-      <c r="C65" t="s" s="14">
-        <v>30</v>
+      <c r="C65" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D65" s="13">
         <v>43875</v>
       </c>
-      <c r="E65" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F65" t="s" s="14">
+      <c r="E65" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="10">
@@ -3687,27 +3703,27 @@
       <c r="B66" t="s" s="11">
         <v>139</v>
       </c>
-      <c r="C66" t="s" s="14">
-        <v>30</v>
+      <c r="C66" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D66" s="13">
         <v>43875</v>
       </c>
-      <c r="E66" t="s" s="14">
+      <c r="E66" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
+      <c r="F66" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="10">
@@ -3716,27 +3732,27 @@
       <c r="B67" t="s" s="11">
         <v>141</v>
       </c>
-      <c r="C67" t="s" s="14">
-        <v>30</v>
+      <c r="C67" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D67" s="13">
         <v>43875</v>
       </c>
-      <c r="E67" t="s" s="14">
+      <c r="E67" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
+      <c r="F67" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="10">
@@ -3745,27 +3761,27 @@
       <c r="B68" t="s" s="11">
         <v>143</v>
       </c>
-      <c r="C68" t="s" s="14">
-        <v>30</v>
+      <c r="C68" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D68" s="13">
         <v>43875</v>
       </c>
-      <c r="E68" t="s" s="14">
+      <c r="E68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
+      <c r="F68" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="10">
@@ -3774,27 +3790,27 @@
       <c r="B69" t="s" s="11">
         <v>145</v>
       </c>
-      <c r="C69" t="s" s="14">
-        <v>30</v>
+      <c r="C69" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D69" s="13">
         <v>43875</v>
       </c>
-      <c r="E69" t="s" s="14">
+      <c r="E69" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
+      <c r="F69" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="10">
@@ -3803,27 +3819,27 @@
       <c r="B70" t="s" s="11">
         <v>147</v>
       </c>
-      <c r="C70" t="s" s="14">
-        <v>30</v>
+      <c r="C70" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D70" s="13">
         <v>43875</v>
       </c>
-      <c r="E70" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
+      <c r="E70" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="10">
@@ -3832,27 +3848,27 @@
       <c r="B71" t="s" s="11">
         <v>149</v>
       </c>
-      <c r="C71" t="s" s="14">
-        <v>30</v>
+      <c r="C71" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D71" s="13">
         <v>43875</v>
       </c>
-      <c r="E71" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
+      <c r="E71" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="10">
@@ -3861,27 +3877,27 @@
       <c r="B72" t="s" s="11">
         <v>151</v>
       </c>
-      <c r="C72" t="s" s="14">
-        <v>30</v>
+      <c r="C72" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D72" s="13">
         <v>43875</v>
       </c>
-      <c r="E72" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
+      <c r="E72" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="10">
@@ -3890,27 +3906,27 @@
       <c r="B73" t="s" s="11">
         <v>153</v>
       </c>
-      <c r="C73" t="s" s="14">
-        <v>30</v>
+      <c r="C73" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D73" s="13">
         <v>43875</v>
       </c>
-      <c r="E73" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
+      <c r="E73" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="10">
@@ -3919,27 +3935,27 @@
       <c r="B74" t="s" s="11">
         <v>155</v>
       </c>
-      <c r="C74" t="s" s="14">
-        <v>30</v>
+      <c r="C74" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D74" s="13">
         <v>43875</v>
       </c>
-      <c r="E74" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
+      <c r="E74" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="10">
@@ -3948,27 +3964,27 @@
       <c r="B75" t="s" s="11">
         <v>157</v>
       </c>
-      <c r="C75" t="s" s="14">
-        <v>30</v>
+      <c r="C75" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D75" s="13">
         <v>43875</v>
       </c>
-      <c r="E75" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
+      <c r="E75" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="10">
@@ -3977,27 +3993,27 @@
       <c r="B76" t="s" s="11">
         <v>159</v>
       </c>
-      <c r="C76" t="s" s="14">
-        <v>30</v>
+      <c r="C76" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D76" s="13">
         <v>43875</v>
       </c>
-      <c r="E76" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
+      <c r="E76" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="10">
@@ -4006,27 +4022,27 @@
       <c r="B77" t="s" s="11">
         <v>161</v>
       </c>
-      <c r="C77" t="s" s="14">
-        <v>30</v>
+      <c r="C77" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D77" s="13">
         <v>43875</v>
       </c>
-      <c r="E77" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
+      <c r="E77" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="10">
@@ -4035,27 +4051,27 @@
       <c r="B78" t="s" s="11">
         <v>163</v>
       </c>
-      <c r="C78" t="s" s="14">
-        <v>30</v>
+      <c r="C78" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D78" s="13">
         <v>43875</v>
       </c>
-      <c r="E78" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
+      <c r="E78" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="10">
@@ -4064,421 +4080,537 @@
       <c r="B79" t="s" s="11">
         <v>165</v>
       </c>
-      <c r="C79" t="s" s="14">
-        <v>30</v>
+      <c r="C79" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D79" s="13">
         <v>43875</v>
       </c>
-      <c r="E79" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
+      <c r="E79" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="10">
         <v>166</v>
       </c>
       <c r="B80" t="s" s="11">
-        <v>165</v>
-      </c>
-      <c r="C80" t="s" s="14">
-        <v>30</v>
+        <v>167</v>
+      </c>
+      <c r="C80" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D80" s="13">
         <v>43875</v>
       </c>
-      <c r="E80" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" t="s" s="14">
+      <c r="E80" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s" s="11">
-        <v>168</v>
-      </c>
-      <c r="C81" t="s" s="14">
-        <v>30</v>
+        <v>169</v>
+      </c>
+      <c r="C81" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D81" s="13">
         <v>43875</v>
       </c>
-      <c r="E81" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" t="s" s="14">
+      <c r="E81" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s" s="11">
-        <v>168</v>
-      </c>
-      <c r="C82" t="s" s="14">
-        <v>30</v>
+        <v>171</v>
+      </c>
+      <c r="C82" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D82" s="13">
         <v>43875</v>
       </c>
-      <c r="E82" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" t="s" s="14">
+      <c r="E82" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="10">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s" s="11">
-        <v>171</v>
-      </c>
-      <c r="C83" t="s" s="14">
-        <v>30</v>
+        <v>173</v>
+      </c>
+      <c r="C83" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D83" s="13">
         <v>43875</v>
       </c>
-      <c r="E83" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" t="s" s="14">
+      <c r="E83" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="10">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s" s="11">
-        <v>171</v>
-      </c>
-      <c r="C84" t="s" s="14">
-        <v>30</v>
+        <v>173</v>
+      </c>
+      <c r="C84" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D84" s="13">
         <v>43875</v>
       </c>
-      <c r="E84" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" t="s" s="14">
+      <c r="E84" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="10">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="C85" t="s" s="14">
-        <v>30</v>
+        <v>176</v>
+      </c>
+      <c r="C85" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="D85" s="13">
         <v>43875</v>
       </c>
-      <c r="E85" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" t="s" s="14">
+      <c r="E85" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="10">
-        <v>174</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="B86" t="s" s="11">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D86" s="13">
         <v>43875</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
+      <c r="E86" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="10">
-        <v>175</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="B87" t="s" s="11">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D87" s="13">
         <v>43875</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
+      <c r="E87" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="10">
-        <v>176</v>
-      </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="12"/>
+        <v>180</v>
+      </c>
+      <c r="B88" t="s" s="11">
+        <v>179</v>
+      </c>
+      <c r="C88" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D88" s="13">
         <v>43875</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
+      <c r="E88" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="10">
-        <v>177</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="12"/>
+        <v>181</v>
+      </c>
+      <c r="B89" t="s" s="11">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D89" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E89" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="10">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B90" s="15"/>
-      <c r="C90" s="12"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="10">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B91" s="15"/>
-      <c r="C91" s="12"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="10">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B92" s="15"/>
-      <c r="C92" s="12"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="10">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B93" s="15"/>
-      <c r="C93" s="12"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="13">
         <v>43851</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="10">
-        <v>182</v>
-      </c>
-      <c r="B94" t="s" s="11">
-        <v>183</v>
-      </c>
-      <c r="C94" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="13">
-        <v>41424</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" t="s" s="14">
-        <v>184</v>
-      </c>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
+        <v>43851</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="10">
-        <v>185</v>
-      </c>
-      <c r="B95" t="s" s="11">
-        <v>186</v>
-      </c>
-      <c r="C95" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+    </row>
+    <row r="96" ht="20.05" customHeight="1">
+      <c r="A96" t="s" s="10">
+        <v>188</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+    </row>
+    <row r="97" ht="20.05" customHeight="1">
+      <c r="A97" t="s" s="10">
+        <v>189</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+    </row>
+    <row r="98" ht="20.05" customHeight="1">
+      <c r="A98" t="s" s="10">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s" s="11">
+        <v>191</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="13">
+        <v>41424</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" t="s" s="12">
+        <v>192</v>
+      </c>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+    </row>
+    <row r="99" ht="20.05" customHeight="1">
+      <c r="A99" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s" s="11">
+        <v>194</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="13">
         <v>39543</v>
       </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" t="s" s="14">
-        <v>184</v>
-      </c>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" t="s" s="12">
+        <v>192</v>
+      </c>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/delong-github-public-files-database.xlsx
+++ b/delong-github-public-files-database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>Table 1</t>
   </si>
@@ -61,15 +61,45 @@
     <t>master file &amp; record for things in this directory</t>
   </si>
   <si>
+    <t>econ-135-lecture-18.pptx</t>
+  </si>
+  <si>
+    <t>touring the continents: western Europe, Latin America, &amp; North America; also lecture-europe-%26-americas-text.pdf</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>econ-135</t>
+  </si>
+  <si>
+    <t>#heg</t>
+  </si>
+  <si>
+    <t>lecture-europe-%26-americas-text.pdf</t>
+  </si>
+  <si>
+    <t>touring the continents: western Europe, Latin America, &amp; North America; also econ-135-lecture-18.pptx</t>
+  </si>
+  <si>
+    <t>coronavirus.pptx</t>
+  </si>
+  <si>
+    <t>coronavirus presentations</t>
+  </si>
+  <si>
+    <t>coronavirus-state.xlsx</t>
+  </si>
+  <si>
+    <t>state-by-state coronavirus numbers</t>
+  </si>
+  <si>
     <t>econ-210a-lecture-10a.pptx</t>
   </si>
   <si>
     <t>intro econ hist coronavirus &amp; keynes lecture; zoom file on typepad</t>
   </si>
   <si>
-    <t>.pdf</t>
-  </si>
-  <si>
     <t>econ-210a</t>
   </si>
   <si>
@@ -88,10 +118,16 @@
     <t>spreadsheet for h calculations</t>
   </si>
   <si>
-    <t>coronavirus.pptx</t>
-  </si>
-  <si>
-    <t>coronavirus presentations</t>
+    <t>econ-115-lecture-15.pptx</t>
+  </si>
+  <si>
+    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf); Apr 06 &amp; 08</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-14.pptx</t>
+  </si>
+  <si>
+    <t>the end of really existing socialism; Apr 01</t>
   </si>
   <si>
     <t>lecture-notes-smith-marx-keynes.pdf</t>
@@ -106,18 +142,12 @@
     <t>econ-105</t>
   </si>
   <si>
-    <t>#heg</t>
-  </si>
-  <si>
     <t>econ-135-zoom-placeholder-2020-03-19.html</t>
   </si>
   <si>
     <t>2020-03-19 zoom lecture q&amp;a session for econ 135: history of economic growth</t>
   </si>
   <si>
-    <t>econ-135</t>
-  </si>
-  <si>
     <t>econ-115-zoom-placeholder-2020-03-30.html</t>
   </si>
   <si>
@@ -130,12 +160,6 @@
     <t>2020-03-31 zoom lecture q&amp;a session for econ 135: history of economic growth</t>
   </si>
   <si>
-    <t>econ-115-lecture-15.pptx</t>
-  </si>
-  <si>
-    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf); Apr 06 &amp; 08</t>
-  </si>
-  <si>
     <t>econ-210a-syllabus.pdf</t>
   </si>
   <si>
@@ -148,12 +172,6 @@
     <t>the neoliberal turn (also econ-115-lecture-15.pptx)</t>
   </si>
   <si>
-    <t>coronavirus-state.xlsx</t>
-  </si>
-  <si>
-    <t>state-by-state coronavirus numbers</t>
-  </si>
-  <si>
     <t>econ-115-lecture-13.pptx</t>
   </si>
   <si>
@@ -176,12 +194,6 @@
   </si>
   <si>
     <t>lecture text to econ-135-lecture-17.pptx</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-14.pptx</t>
-  </si>
-  <si>
-    <t>the end of really existing socialism; Apr 01</t>
   </si>
   <si>
     <t>slides on coronavirus</t>
@@ -1891,7 +1903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O99"/>
+  <dimension ref="A2:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1900,7 +1912,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="54.7656" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7969" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.844" style="1" customWidth="1"/>
     <col min="3" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28906" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.86719" style="1" customWidth="1"/>
@@ -1982,7 +1994,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2009,17 +2021,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="13">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="E4" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H4" s="14"/>
-      <c r="I4" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -2029,22 +2043,24 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="13">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -2061,14 +2077,18 @@
       <c r="B6" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D6" s="13">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="H6" t="s" s="12">
+        <v>8</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -2084,11 +2104,9 @@
       <c r="B7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="C7" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="13">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -2112,20 +2130,16 @@
         <v>28</v>
       </c>
       <c r="C8" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43922</v>
+      </c>
+      <c r="E8" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="D8" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>31</v>
-      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" t="s" s="12">
         <v>9</v>
@@ -2134,29 +2148,27 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="N8" s="14"/>
       <c r="O8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="13">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" t="s" s="12">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2168,21 +2180,17 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>6</v>
-      </c>
+        <v>43922</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2195,21 +2203,25 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>6</v>
+      </c>
       <c r="G11" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -2222,10 +2234,10 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="12">
         <v>18</v>
@@ -2234,14 +2246,12 @@
         <v>43922</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G12" t="s" s="12">
-        <v>31</v>
-      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2253,20 +2263,26 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="B13" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="C13" s="14"/>
       <c r="D13" s="13">
         <v>43921</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H13" s="14"/>
       <c r="I13" t="s" s="12">
         <v>9</v>
@@ -2275,7 +2291,9 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="N13" t="s" s="12">
+        <v>12</v>
+      </c>
       <c r="O13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2290,18 +2308,14 @@
         <v>43921</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s" s="12">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F14" s="14"/>
       <c r="G14" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -2318,14 +2332,16 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+        <v>43921</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s" s="12">
+        <v>6</v>
+      </c>
       <c r="G15" s="14"/>
-      <c r="H15" t="s" s="12">
-        <v>8</v>
-      </c>
+      <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -2341,19 +2357,17 @@
       <c r="B16" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="C16" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="13">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="E16" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -2372,15 +2386,17 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E17" s="14"/>
+        <v>43921</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>29</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="I17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -2395,21 +2411,23 @@
       <c r="B18" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="13">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="F18" t="s" s="12">
+        <v>6</v>
+      </c>
       <c r="G18" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="I18" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -2424,17 +2442,19 @@
       <c r="B19" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D19" s="13">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" t="s" s="12">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F19" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -2451,20 +2471,16 @@
       <c r="B20" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="C20" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="13">
-        <v>43922</v>
-      </c>
-      <c r="E20" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s" s="12">
-        <v>6</v>
-      </c>
+        <v>43920</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="H20" t="s" s="12">
+        <v>8</v>
+      </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -2475,21 +2491,25 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="C21" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D21" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>43919</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>19</v>
+      </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" t="s" s="12">
-        <v>8</v>
-      </c>
+      <c r="G21" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -2500,27 +2520,25 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="13">
-        <v>43912</v>
+        <v>43919</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" t="s" s="12">
-        <v>10</v>
-      </c>
+      <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -2529,29 +2547,23 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="C23" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="13">
         <v>43912</v>
       </c>
-      <c r="E23" t="s" s="12">
-        <v>34</v>
-      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="H23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" t="s" s="12">
+        <v>8</v>
+      </c>
       <c r="I23" s="14"/>
-      <c r="J23" t="s" s="12">
-        <v>10</v>
-      </c>
+      <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -2565,22 +2577,22 @@
       <c r="B24" t="s" s="11">
         <v>63</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C24" s="14"/>
       <c r="D24" s="13">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="J24" t="s" s="12">
+        <v>10</v>
+      </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
@@ -2594,20 +2606,24 @@
       <c r="B25" t="s" s="11">
         <v>65</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D25" s="13">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G25" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="J25" t="s" s="12">
+        <v>10</v>
+      </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -2625,14 +2641,14 @@
         <v>18</v>
       </c>
       <c r="D26" s="13">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -2648,14 +2664,14 @@
         <v>68</v>
       </c>
       <c r="B27" t="s" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="13">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s" s="12">
         <v>6</v>
@@ -2672,10 +2688,10 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s" s="12">
         <v>18</v>
@@ -2687,11 +2703,11 @@
         <v>19</v>
       </c>
       <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="G28" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H28" s="14"/>
-      <c r="I28" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -2701,17 +2717,21 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+        <v>43907</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s" s="12">
+        <v>6</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -2727,21 +2747,23 @@
         <v>73</v>
       </c>
       <c r="B30" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="C30" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D30" s="13">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s" s="12">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="I30" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -2751,21 +2773,17 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13">
-        <v>43904</v>
-      </c>
-      <c r="E31" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s" s="12">
-        <v>6</v>
-      </c>
+        <v>43906</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -2778,19 +2796,17 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="13">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="E32" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s" s="12">
         <v>6</v>
@@ -2812,14 +2828,12 @@
       <c r="B33" t="s" s="11">
         <v>79</v>
       </c>
-      <c r="C33" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C33" s="14"/>
       <c r="D33" s="13">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="E33" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s" s="12">
         <v>6</v>
@@ -2848,7 +2862,7 @@
         <v>43903</v>
       </c>
       <c r="E34" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s" s="12">
         <v>6</v>
@@ -2877,7 +2891,7 @@
         <v>43903</v>
       </c>
       <c r="E35" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s" s="12">
         <v>6</v>
@@ -2906,7 +2920,7 @@
         <v>43903</v>
       </c>
       <c r="E36" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s" s="12">
         <v>6</v>
@@ -2935,7 +2949,7 @@
         <v>43903</v>
       </c>
       <c r="E37" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s" s="12">
         <v>6</v>
@@ -2964,12 +2978,12 @@
         <v>43903</v>
       </c>
       <c r="E38" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" t="s" s="12">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F38" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -2993,12 +3007,12 @@
         <v>43903</v>
       </c>
       <c r="E39" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" t="s" s="12">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F39" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -3022,11 +3036,11 @@
         <v>43903</v>
       </c>
       <c r="E40" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -3051,11 +3065,11 @@
         <v>43903</v>
       </c>
       <c r="E41" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -3083,11 +3097,11 @@
         <v>19</v>
       </c>
       <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="G42" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H42" s="14"/>
-      <c r="I42" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
@@ -3112,11 +3126,11 @@
         <v>19</v>
       </c>
       <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="G43" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H43" s="14"/>
-      <c r="I43" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -3131,21 +3145,21 @@
       <c r="B44" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D44" s="13">
         <v>43903</v>
       </c>
       <c r="E44" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F44" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G44" t="s" s="12">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="I44" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -3160,45 +3174,51 @@
       <c r="B45" t="s" s="11">
         <v>103</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D45" s="13">
         <v>43903</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" t="s" s="12">
+        <v>29</v>
+      </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" t="s" s="12">
-        <v>104</v>
-      </c>
+      <c r="I45" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J45" s="14"/>
       <c r="K45" s="14"/>
-      <c r="L45" t="s" s="12">
-        <v>105</v>
-      </c>
+      <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="10">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="13">
         <v>43903</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="E46" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="J46" t="s" s="12">
-        <v>104</v>
-      </c>
+      <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
@@ -3207,42 +3227,50 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="B47" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="B47" t="s" s="11">
+        <v>107</v>
+      </c>
       <c r="C47" s="14"/>
       <c r="D47" s="13">
-        <v>43888</v>
+        <v>43903</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
+      <c r="J47" t="s" s="12">
+        <v>108</v>
+      </c>
       <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
+      <c r="L47" t="s" s="12">
+        <v>109</v>
+      </c>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="13">
-        <v>43888</v>
+        <v>43903</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="J48" t="s" s="12">
+        <v>108</v>
+      </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
@@ -3251,24 +3279,16 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="B49" t="s" s="11">
         <v>112</v>
       </c>
-      <c r="C49" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="13">
         <v>43888</v>
       </c>
-      <c r="E49" t="s" s="12">
-        <v>34</v>
-      </c>
+      <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" t="s" s="12">
-        <v>31</v>
-      </c>
+      <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -3285,19 +3305,13 @@
       <c r="B50" t="s" s="11">
         <v>114</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C50" s="14"/>
       <c r="D50" s="13">
         <v>43888</v>
       </c>
-      <c r="E50" t="s" s="12">
-        <v>34</v>
-      </c>
+      <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" t="s" s="12">
-        <v>31</v>
-      </c>
+      <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -3321,11 +3335,11 @@
         <v>43888</v>
       </c>
       <c r="E51" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -3353,11 +3367,11 @@
         <v>19</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="G52" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H52" s="14"/>
-      <c r="I52" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
@@ -3382,11 +3396,11 @@
         <v>19</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="G53" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H53" s="14"/>
-      <c r="I53" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -3399,7 +3413,7 @@
         <v>121</v>
       </c>
       <c r="B54" t="s" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s" s="12">
         <v>18</v>
@@ -3408,7 +3422,7 @@
         <v>43888</v>
       </c>
       <c r="E54" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
@@ -3425,10 +3439,10 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="10">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s" s="11">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s" s="12">
         <v>18</v>
@@ -3437,7 +3451,7 @@
         <v>43888</v>
       </c>
       <c r="E55" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -3454,17 +3468,19 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="10">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s" s="11">
         <v>124</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D56" s="13">
         <v>43888</v>
       </c>
       <c r="E56" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
@@ -3481,23 +3497,27 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s" s="11">
-        <v>126</v>
-      </c>
-      <c r="C57" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="C57" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D57" s="13">
         <v>43888</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" t="s" s="12">
+        <v>29</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" t="s" s="12">
-        <v>10</v>
-      </c>
+      <c r="I57" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
@@ -3508,16 +3528,22 @@
       <c r="A58" t="s" s="10">
         <v>127</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" t="s" s="11">
+        <v>128</v>
+      </c>
       <c r="C58" s="14"/>
       <c r="D58" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E58" s="14"/>
+        <v>43888</v>
+      </c>
+      <c r="E58" t="s" s="12">
+        <v>29</v>
+      </c>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="I58" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
@@ -3527,21 +3553,23 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="B59" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="B59" t="s" s="11">
+        <v>130</v>
+      </c>
       <c r="C59" s="14"/>
       <c r="D59" s="13">
-        <v>43875</v>
+        <v>43888</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
-      <c r="I59" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" t="s" s="12">
+        <v>10</v>
+      </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
@@ -3550,7 +3578,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="14"/>
@@ -3571,7 +3599,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="10">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="14"/>
@@ -3582,7 +3610,9 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="I61" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
@@ -3592,7 +3622,7 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="14"/>
@@ -3613,24 +3643,18 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s" s="11">
-        <v>133</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B63" s="15"/>
       <c r="C63" s="14"/>
       <c r="D63" s="13">
         <v>43875</v>
       </c>
-      <c r="E63" t="s" s="12">
-        <v>19</v>
-      </c>
+      <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
-      <c r="I63" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
@@ -3640,23 +3664,15 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="B64" t="s" s="11">
         <v>135</v>
       </c>
-      <c r="C64" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="13">
         <v>43875</v>
       </c>
-      <c r="E64" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s" s="12">
-        <v>6</v>
-      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
@@ -3674,21 +3690,19 @@
       <c r="B65" t="s" s="11">
         <v>137</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C65" s="14"/>
       <c r="D65" s="13">
         <v>43875</v>
       </c>
       <c r="E65" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F65" t="s" s="12">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
+      <c r="I65" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
@@ -3710,7 +3724,7 @@
         <v>43875</v>
       </c>
       <c r="E66" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s" s="12">
         <v>6</v>
@@ -3739,7 +3753,7 @@
         <v>43875</v>
       </c>
       <c r="E67" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s" s="12">
         <v>6</v>
@@ -3768,7 +3782,7 @@
         <v>43875</v>
       </c>
       <c r="E68" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s" s="12">
         <v>6</v>
@@ -3797,7 +3811,7 @@
         <v>43875</v>
       </c>
       <c r="E69" t="s" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s" s="12">
         <v>6</v>
@@ -3826,12 +3840,12 @@
         <v>43875</v>
       </c>
       <c r="E70" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" t="s" s="12">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F70" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -3855,12 +3869,12 @@
         <v>43875</v>
       </c>
       <c r="E71" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" t="s" s="12">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F71" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -3884,11 +3898,11 @@
         <v>43875</v>
       </c>
       <c r="E72" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
@@ -3913,11 +3927,11 @@
         <v>43875</v>
       </c>
       <c r="E73" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
@@ -3942,11 +3956,11 @@
         <v>43875</v>
       </c>
       <c r="E74" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -3971,11 +3985,11 @@
         <v>43875</v>
       </c>
       <c r="E75" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
@@ -4000,11 +4014,11 @@
         <v>43875</v>
       </c>
       <c r="E76" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
@@ -4029,11 +4043,11 @@
         <v>43875</v>
       </c>
       <c r="E77" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
@@ -4058,11 +4072,11 @@
         <v>43875</v>
       </c>
       <c r="E78" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
@@ -4087,11 +4101,11 @@
         <v>43875</v>
       </c>
       <c r="E79" t="s" s="12">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" t="s" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
@@ -4119,11 +4133,11 @@
         <v>19</v>
       </c>
       <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
+      <c r="G80" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H80" s="14"/>
-      <c r="I80" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I80" s="14"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
@@ -4148,11 +4162,11 @@
         <v>19</v>
       </c>
       <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+      <c r="G81" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="H81" s="14"/>
-      <c r="I81" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
@@ -4174,7 +4188,7 @@
         <v>43875</v>
       </c>
       <c r="E82" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
@@ -4203,7 +4217,7 @@
         <v>43875</v>
       </c>
       <c r="E83" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
@@ -4223,7 +4237,7 @@
         <v>174</v>
       </c>
       <c r="B84" t="s" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s" s="12">
         <v>18</v>
@@ -4232,7 +4246,7 @@
         <v>43875</v>
       </c>
       <c r="E84" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
@@ -4249,10 +4263,10 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s" s="12">
         <v>18</v>
@@ -4261,7 +4275,7 @@
         <v>43875</v>
       </c>
       <c r="E85" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
@@ -4278,10 +4292,10 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="10">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s" s="11">
         <v>177</v>
-      </c>
-      <c r="B86" t="s" s="11">
-        <v>176</v>
       </c>
       <c r="C86" t="s" s="12">
         <v>18</v>
@@ -4290,7 +4304,7 @@
         <v>43875</v>
       </c>
       <c r="E86" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
@@ -4307,10 +4321,10 @@
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s" s="12">
         <v>18</v>
@@ -4319,7 +4333,7 @@
         <v>43875</v>
       </c>
       <c r="E87" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
@@ -4336,10 +4350,10 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s" s="11">
         <v>180</v>
-      </c>
-      <c r="B88" t="s" s="11">
-        <v>179</v>
       </c>
       <c r="C88" t="s" s="12">
         <v>18</v>
@@ -4348,7 +4362,7 @@
         <v>43875</v>
       </c>
       <c r="E88" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
@@ -4365,10 +4379,10 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s" s="11">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s" s="12">
         <v>18</v>
@@ -4377,7 +4391,7 @@
         <v>43875</v>
       </c>
       <c r="E89" t="s" s="12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
@@ -4394,18 +4408,26 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="10">
-        <v>182</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="B90" t="s" s="11">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D90" s="13">
         <v>43875</v>
       </c>
-      <c r="E90" s="14"/>
+      <c r="E90" t="s" s="12">
+        <v>29</v>
+      </c>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="I90" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
@@ -4415,18 +4437,26 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="10">
-        <v>183</v>
-      </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="B91" t="s" s="11">
+        <v>122</v>
+      </c>
+      <c r="C91" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="D91" s="13">
         <v>43875</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" t="s" s="12">
+        <v>29</v>
+      </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="I91" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
@@ -4436,7 +4466,7 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="10">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="14"/>
@@ -4457,12 +4487,12 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="14"/>
       <c r="D93" s="13">
-        <v>43851</v>
+        <v>43875</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
@@ -4478,20 +4508,18 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="10">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="14"/>
       <c r="D94" s="13">
-        <v>43851</v>
+        <v>43875</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
-      <c r="I94" t="s" s="12">
-        <v>9</v>
-      </c>
+      <c r="I94" s="14"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
@@ -4501,7 +4529,7 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="10">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="14"/>
@@ -4522,7 +4550,7 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="10">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="14"/>
@@ -4533,7 +4561,9 @@
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="I96" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
@@ -4543,7 +4573,7 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="10">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B97" s="15"/>
       <c r="C97" s="14"/>
@@ -4564,14 +4594,12 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="10">
-        <v>190</v>
-      </c>
-      <c r="B98" t="s" s="11">
-        <v>191</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B98" s="15"/>
       <c r="C98" s="14"/>
       <c r="D98" s="13">
-        <v>41424</v>
+        <v>43851</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
@@ -4579,9 +4607,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
-      <c r="K98" t="s" s="12">
-        <v>192</v>
-      </c>
+      <c r="K98" s="14"/>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
@@ -4591,12 +4617,10 @@
       <c r="A99" t="s" s="10">
         <v>193</v>
       </c>
-      <c r="B99" t="s" s="11">
-        <v>194</v>
-      </c>
+      <c r="B99" s="15"/>
       <c r="C99" s="14"/>
       <c r="D99" s="13">
-        <v>39543</v>
+        <v>43851</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
@@ -4604,13 +4628,61 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" t="s" s="12">
-        <v>192</v>
-      </c>
+      <c r="K99" s="14"/>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
+    </row>
+    <row r="100" ht="20.05" customHeight="1">
+      <c r="A100" t="s" s="10">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s" s="11">
+        <v>195</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="13">
+        <v>41424</v>
+      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" t="s" s="12">
+        <v>196</v>
+      </c>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+    </row>
+    <row r="101" ht="20.05" customHeight="1">
+      <c r="A101" t="s" s="10">
+        <v>197</v>
+      </c>
+      <c r="B101" t="s" s="11">
+        <v>198</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="13">
+        <v>39543</v>
+      </c>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" t="s" s="12">
+        <v>196</v>
+      </c>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/delong-github-public-files-database.xlsx
+++ b/delong-github-public-files-database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>Table 1</t>
   </si>
@@ -61,31 +61,58 @@
     <t>master file &amp; record for things in this directory</t>
   </si>
   <si>
+    <t>grasping-reality-references-to-public-files.xlsx</t>
+  </si>
+  <si>
+    <t>files on grasping reality thet point to files on github</t>
+  </si>
+  <si>
+    <t>lecture-rise-of-socialism—350-1917-text-pdf</t>
+  </si>
+  <si>
+    <t>lecture: rise of sociaiism -350 to 1917 lecture text (also lecture-rise-of-socialism—350-1917.pptx)</t>
+  </si>
+  <si>
+    <t>#heg</t>
+  </si>
+  <si>
+    <t>lecture-rise-of-socialism—350-1917.pptx</t>
+  </si>
+  <si>
+    <t>lecture: rise of sociaiism -350 to 1917 lecture slides (also lecture-rise-of-socialism—350-1917-text.pdf)</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>coronavirus.pptx</t>
+  </si>
+  <si>
+    <t>coronavirus presentations</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-14.pptx</t>
+  </si>
+  <si>
+    <t>the end of really existing socialism; Apr 01</t>
+  </si>
+  <si>
+    <t>econ-115</t>
+  </si>
+  <si>
     <t>econ-135-lecture-18.pptx</t>
   </si>
   <si>
-    <t>touring the continents: western Europe, Latin America, &amp; North America; also lecture-europe-%26-americas-text.pdf</t>
-  </si>
-  <si>
-    <t>.pdf</t>
+    <t>touring the continents: western europe, latin america, &amp; north america; also lecture-europe-%26-americas-text.pdf</t>
   </si>
   <si>
     <t>econ-135</t>
   </si>
   <si>
-    <t>#heg</t>
-  </si>
-  <si>
     <t>lecture-europe-%26-americas-text.pdf</t>
   </si>
   <si>
-    <t>touring the continents: western Europe, Latin America, &amp; North America; also econ-135-lecture-18.pptx</t>
-  </si>
-  <si>
-    <t>coronavirus.pptx</t>
-  </si>
-  <si>
-    <t>coronavirus presentations</t>
+    <t>touring the continents: western europe, latin america, &amp; north america; also econ-135-lecture-18.pptx</t>
   </si>
   <si>
     <t>coronavirus-state.xlsx</t>
@@ -109,9 +136,6 @@
     <t>zoom file for decline &amp; fall of really existing socialism: econ-115-lecture-16.pptx</t>
   </si>
   <si>
-    <t>econ-115</t>
-  </si>
-  <si>
     <t>longest-run-growth.xlsx</t>
   </si>
   <si>
@@ -122,12 +146,6 @@
   </si>
   <si>
     <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf); Apr 06 &amp; 08</t>
-  </si>
-  <si>
-    <t>econ-115-lecture-14.pptx</t>
-  </si>
-  <si>
-    <t>the end of really existing socialism; Apr 01</t>
   </si>
   <si>
     <t>lecture-notes-smith-marx-keynes.pdf</t>
@@ -812,13 +830,13 @@
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1903,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O101"/>
+  <dimension ref="A2:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1994,7 +2012,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2017,249 +2035,249 @@
       <c r="B4" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="13">
-        <v>43923</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+        <v>43924</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="13">
-        <v>43923</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="12">
+        <v>43924</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D6" s="13">
-        <v>43923</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+        <v>43924</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="C7" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D7" s="13">
-        <v>43923</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" t="s" s="12">
+        <v>43924</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="C8" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43924</v>
+      </c>
+      <c r="E8" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13">
-        <v>43922</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="F8" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="C9" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13">
+        <v>43923</v>
+      </c>
+      <c r="E9" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13">
-        <v>43922</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="G9" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="B10" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <v>43922</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+        <v>43923</v>
+      </c>
+      <c r="E10" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="B11" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <v>43922</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+        <v>43923</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="11">
         <v>37</v>
       </c>
-      <c r="B12" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>18</v>
+      <c r="C12" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D12" s="13">
         <v>43922</v>
       </c>
-      <c r="E12" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="E12" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
@@ -2268,114 +2286,114 @@
       <c r="B13" t="s" s="11">
         <v>40</v>
       </c>
-      <c r="C13" t="s" s="12">
-        <v>41</v>
-      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s" s="12">
+        <v>43922</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G13" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="O13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+        <v>43922</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="C15" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D15" s="13">
-        <v>43921</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s" s="12">
+        <v>43922</v>
+      </c>
+      <c r="E15" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="G15" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="B16" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="C16" s="14"/>
       <c r="D16" s="13">
         <v>43921</v>
       </c>
-      <c r="E16" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" t="s" s="12">
+      <c r="E16" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
@@ -2384,25 +2402,25 @@
       <c r="B17" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="13">
         <v>43921</v>
       </c>
-      <c r="E17" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="E17" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
@@ -2411,29 +2429,25 @@
       <c r="B18" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="13">
         <v>43921</v>
       </c>
-      <c r="E18" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s" s="12">
+      <c r="E18" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G18" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
@@ -2442,27 +2456,25 @@
       <c r="B19" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E19" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+        <v>43921</v>
+      </c>
+      <c r="E19" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
@@ -2471,23 +2483,25 @@
       <c r="B20" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="13">
-        <v>43920</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+        <v>43921</v>
+      </c>
+      <c r="E20" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
@@ -2496,27 +2510,29 @@
       <c r="B21" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="13">
-        <v>43919</v>
-      </c>
-      <c r="E21" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" t="s" s="12">
+        <v>43921</v>
+      </c>
+      <c r="E21" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="H21" s="12"/>
+      <c r="I21" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
@@ -2525,139 +2541,133 @@
       <c r="B22" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D22" s="13">
-        <v>43919</v>
-      </c>
-      <c r="E22" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+        <v>43920</v>
+      </c>
+      <c r="E22" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="C23" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" t="s" s="12">
+        <v>43920</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="C24" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="C24" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D24" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E24" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" t="s" s="12">
+        <v>43919</v>
+      </c>
+      <c r="E24" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E25" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" t="s" s="12">
+        <v>43919</v>
+      </c>
+      <c r="E25" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>67</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="13">
-        <v>43909</v>
-      </c>
-      <c r="E26" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
+        <v>43912</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
@@ -2666,25 +2676,27 @@
       <c r="B27" t="s" s="11">
         <v>69</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="13">
-        <v>43908</v>
-      </c>
-      <c r="E27" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+        <v>43912</v>
+      </c>
+      <c r="E27" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
@@ -2693,218 +2705,220 @@
       <c r="B28" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="C28" t="s" s="12">
-        <v>18</v>
+      <c r="C28" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D28" s="13">
-        <v>43907</v>
-      </c>
-      <c r="E28" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" t="s" s="12">
+        <v>43912</v>
+      </c>
+      <c r="E28" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
         <v>72</v>
       </c>
       <c r="B29" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="C29" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="C29" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D29" s="13">
-        <v>43907</v>
-      </c>
-      <c r="E29" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
+        <v>43909</v>
+      </c>
+      <c r="E29" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C30" s="12"/>
       <c r="D30" s="13">
-        <v>43907</v>
-      </c>
-      <c r="E30" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
+        <v>43908</v>
+      </c>
+      <c r="E30" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="C31" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="C31" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D31" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
+        <v>43907</v>
+      </c>
+      <c r="E31" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="C32" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="C32" s="12"/>
       <c r="D32" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E32" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s" s="12">
+        <v>43907</v>
+      </c>
+      <c r="E32" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s" s="11">
-        <v>79</v>
-      </c>
-      <c r="C33" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="C33" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D33" s="13">
-        <v>43904</v>
-      </c>
-      <c r="E33" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+        <v>43907</v>
+      </c>
+      <c r="E33" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C34" s="12"/>
       <c r="D34" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E34" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+        <v>43906</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s" s="11">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C35" s="12"/>
       <c r="D35" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E35" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F35" t="s" s="12">
+        <v>43906</v>
+      </c>
+      <c r="E35" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
@@ -2913,27 +2927,25 @@
       <c r="B36" t="s" s="11">
         <v>85</v>
       </c>
-      <c r="C36" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C36" s="12"/>
       <c r="D36" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E36" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s" s="12">
+        <v>43904</v>
+      </c>
+      <c r="E36" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="10">
@@ -2942,27 +2954,27 @@
       <c r="B37" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="C37" t="s" s="12">
-        <v>18</v>
+      <c r="C37" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D37" s="13">
         <v>43903</v>
       </c>
-      <c r="E37" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s" s="12">
+      <c r="E37" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
@@ -2971,27 +2983,27 @@
       <c r="B38" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>18</v>
+      <c r="C38" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D38" s="13">
         <v>43903</v>
       </c>
-      <c r="E38" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s" s="12">
+      <c r="E38" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
@@ -3000,27 +3012,27 @@
       <c r="B39" t="s" s="11">
         <v>91</v>
       </c>
-      <c r="C39" t="s" s="12">
-        <v>18</v>
+      <c r="C39" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D39" s="13">
         <v>43903</v>
       </c>
-      <c r="E39" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F39" t="s" s="12">
+      <c r="E39" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
@@ -3029,27 +3041,27 @@
       <c r="B40" t="s" s="11">
         <v>93</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>18</v>
+      <c r="C40" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D40" s="13">
         <v>43903</v>
       </c>
-      <c r="E40" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
+      <c r="E40" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="10">
@@ -3058,27 +3070,27 @@
       <c r="B41" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="C41" t="s" s="12">
-        <v>18</v>
+      <c r="C41" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D41" s="13">
         <v>43903</v>
       </c>
-      <c r="E41" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
+      <c r="E41" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="10">
@@ -3087,27 +3099,27 @@
       <c r="B42" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="C42" t="s" s="12">
-        <v>18</v>
+      <c r="C42" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D42" s="13">
         <v>43903</v>
       </c>
-      <c r="E42" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
+      <c r="E42" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="10">
@@ -3116,27 +3128,27 @@
       <c r="B43" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="C43" t="s" s="12">
-        <v>18</v>
+      <c r="C43" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D43" s="13">
         <v>43903</v>
       </c>
-      <c r="E43" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" t="s" s="12">
+      <c r="E43" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="10">
@@ -3145,27 +3157,27 @@
       <c r="B44" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="C44" t="s" s="12">
-        <v>18</v>
+      <c r="C44" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D44" s="13">
         <v>43903</v>
       </c>
-      <c r="E44" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
+      <c r="E44" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="10">
@@ -3174,27 +3186,27 @@
       <c r="B45" t="s" s="11">
         <v>103</v>
       </c>
-      <c r="C45" t="s" s="12">
-        <v>18</v>
+      <c r="C45" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D45" s="13">
         <v>43903</v>
       </c>
-      <c r="E45" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
+      <c r="E45" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="10">
@@ -3203,27 +3215,27 @@
       <c r="B46" t="s" s="11">
         <v>105</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D46" s="13">
         <v>43903</v>
       </c>
-      <c r="E46" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G46" t="s" s="12">
+      <c r="E46" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="10">
@@ -3232,152 +3244,158 @@
       <c r="B47" t="s" s="11">
         <v>107</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D47" s="13">
         <v>43903</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="K47" s="14"/>
-      <c r="L47" t="s" s="12">
-        <v>109</v>
-      </c>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
+      <c r="E47" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="10">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s" s="11">
-        <v>111</v>
-      </c>
-      <c r="C48" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="C48" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D48" s="13">
         <v>43903</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
+      <c r="E48" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="B49" t="s" s="11">
+        <v>111</v>
+      </c>
+      <c r="C49" s="12"/>
       <c r="D49" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
+        <v>43903</v>
+      </c>
+      <c r="E49" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s" s="11">
         <v>113</v>
       </c>
-      <c r="B50" t="s" s="11">
+      <c r="C50" s="12"/>
+      <c r="D50" s="13">
+        <v>43903</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" t="s" s="14">
         <v>114</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
+      <c r="K50" s="12"/>
+      <c r="L50" t="s" s="14">
+        <v>115</v>
+      </c>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="10">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C51" s="12"/>
       <c r="D51" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E51" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
+        <v>43903</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="B52" t="s" s="11">
         <v>118</v>
       </c>
-      <c r="C52" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="13">
         <v>43888</v>
       </c>
-      <c r="E52" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="10">
@@ -3386,27 +3404,21 @@
       <c r="B53" t="s" s="11">
         <v>120</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C53" s="12"/>
       <c r="D53" s="13">
         <v>43888</v>
       </c>
-      <c r="E53" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="10">
@@ -3415,27 +3427,27 @@
       <c r="B54" t="s" s="11">
         <v>122</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>18</v>
+      <c r="C54" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D54" s="13">
         <v>43888</v>
       </c>
-      <c r="E54" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
+      <c r="E54" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="10">
@@ -3444,329 +3456,331 @@
       <c r="B55" t="s" s="11">
         <v>124</v>
       </c>
-      <c r="C55" t="s" s="12">
-        <v>18</v>
+      <c r="C55" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D55" s="13">
         <v>43888</v>
       </c>
-      <c r="E55" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
+      <c r="E55" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="10">
         <v>125</v>
       </c>
       <c r="B56" t="s" s="11">
-        <v>124</v>
-      </c>
-      <c r="C56" t="s" s="12">
-        <v>18</v>
+        <v>126</v>
+      </c>
+      <c r="C56" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D56" s="13">
         <v>43888</v>
       </c>
-      <c r="E56" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
+      <c r="E56" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s" s="12">
-        <v>18</v>
+        <v>128</v>
+      </c>
+      <c r="C57" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D57" s="13">
         <v>43888</v>
       </c>
-      <c r="E57" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" t="s" s="12">
+      <c r="E57" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s" s="11">
-        <v>128</v>
-      </c>
-      <c r="C58" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="C58" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D58" s="13">
         <v>43888</v>
       </c>
-      <c r="E58" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" t="s" s="12">
+      <c r="E58" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s" s="11">
         <v>130</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D59" s="13">
         <v>43888</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
+      <c r="E59" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="B60" t="s" s="11">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D60" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
+        <v>43888</v>
+      </c>
+      <c r="E60" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="B61" t="s" s="11">
+        <v>134</v>
+      </c>
+      <c r="C61" s="12"/>
       <c r="D61" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" t="s" s="12">
+        <v>43888</v>
+      </c>
+      <c r="E61" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="10">
-        <v>133</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="14"/>
+        <v>135</v>
+      </c>
+      <c r="B62" t="s" s="11">
+        <v>136</v>
+      </c>
+      <c r="C62" s="12"/>
       <c r="D62" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
+        <v>43888</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="10">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="13">
         <v>43875</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B64" s="15"/>
-      <c r="C64" s="14"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="13">
         <v>43875</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="B65" t="s" s="11">
-        <v>137</v>
-      </c>
-      <c r="C65" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="13">
         <v>43875</v>
       </c>
-      <c r="E65" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s" s="11">
-        <v>139</v>
-      </c>
-      <c r="C66" t="s" s="12">
-        <v>18</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="13">
         <v>43875</v>
       </c>
-      <c r="E66" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F66" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="10">
-        <v>140</v>
-      </c>
-      <c r="B67" t="s" s="11">
         <v>141</v>
       </c>
-      <c r="C67" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="13">
         <v>43875</v>
       </c>
-      <c r="E67" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F67" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="10">
@@ -3775,27 +3789,25 @@
       <c r="B68" t="s" s="11">
         <v>143</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>18</v>
-      </c>
+      <c r="C68" s="12"/>
       <c r="D68" s="13">
         <v>43875</v>
       </c>
-      <c r="E68" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
+      <c r="E68" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="10">
@@ -3804,27 +3816,27 @@
       <c r="B69" t="s" s="11">
         <v>145</v>
       </c>
-      <c r="C69" t="s" s="12">
-        <v>18</v>
+      <c r="C69" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D69" s="13">
         <v>43875</v>
       </c>
-      <c r="E69" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F69" t="s" s="12">
+      <c r="E69" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="10">
@@ -3833,27 +3845,27 @@
       <c r="B70" t="s" s="11">
         <v>147</v>
       </c>
-      <c r="C70" t="s" s="12">
-        <v>18</v>
+      <c r="C70" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D70" s="13">
         <v>43875</v>
       </c>
-      <c r="E70" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F70" t="s" s="12">
+      <c r="E70" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="10">
@@ -3862,27 +3874,27 @@
       <c r="B71" t="s" s="11">
         <v>149</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>18</v>
+      <c r="C71" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D71" s="13">
         <v>43875</v>
       </c>
-      <c r="E71" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F71" t="s" s="12">
+      <c r="E71" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="10">
@@ -3891,27 +3903,27 @@
       <c r="B72" t="s" s="11">
         <v>151</v>
       </c>
-      <c r="C72" t="s" s="12">
-        <v>18</v>
+      <c r="C72" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D72" s="13">
         <v>43875</v>
       </c>
-      <c r="E72" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
+      <c r="E72" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="10">
@@ -3920,27 +3932,27 @@
       <c r="B73" t="s" s="11">
         <v>153</v>
       </c>
-      <c r="C73" t="s" s="12">
-        <v>18</v>
+      <c r="C73" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D73" s="13">
         <v>43875</v>
       </c>
-      <c r="E73" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F73" s="14"/>
-      <c r="G73" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
+      <c r="E73" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="10">
@@ -3949,27 +3961,27 @@
       <c r="B74" t="s" s="11">
         <v>155</v>
       </c>
-      <c r="C74" t="s" s="12">
-        <v>18</v>
+      <c r="C74" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D74" s="13">
         <v>43875</v>
       </c>
-      <c r="E74" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F74" s="14"/>
-      <c r="G74" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
+      <c r="E74" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="10">
@@ -3978,27 +3990,27 @@
       <c r="B75" t="s" s="11">
         <v>157</v>
       </c>
-      <c r="C75" t="s" s="12">
-        <v>18</v>
+      <c r="C75" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D75" s="13">
         <v>43875</v>
       </c>
-      <c r="E75" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F75" s="14"/>
-      <c r="G75" t="s" s="12">
+      <c r="E75" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="10">
@@ -4007,27 +4019,27 @@
       <c r="B76" t="s" s="11">
         <v>159</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>18</v>
+      <c r="C76" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D76" s="13">
         <v>43875</v>
       </c>
-      <c r="E76" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F76" s="14"/>
-      <c r="G76" t="s" s="12">
+      <c r="E76" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="10">
@@ -4036,27 +4048,27 @@
       <c r="B77" t="s" s="11">
         <v>161</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>18</v>
+      <c r="C77" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D77" s="13">
         <v>43875</v>
       </c>
-      <c r="E77" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F77" s="14"/>
-      <c r="G77" t="s" s="12">
+      <c r="E77" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="10">
@@ -4065,27 +4077,27 @@
       <c r="B78" t="s" s="11">
         <v>163</v>
       </c>
-      <c r="C78" t="s" s="12">
-        <v>18</v>
+      <c r="C78" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D78" s="13">
         <v>43875</v>
       </c>
-      <c r="E78" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F78" s="14"/>
-      <c r="G78" t="s" s="12">
+      <c r="E78" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="10">
@@ -4094,27 +4106,27 @@
       <c r="B79" t="s" s="11">
         <v>165</v>
       </c>
-      <c r="C79" t="s" s="12">
-        <v>18</v>
+      <c r="C79" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D79" s="13">
         <v>43875</v>
       </c>
-      <c r="E79" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F79" s="14"/>
-      <c r="G79" t="s" s="12">
+      <c r="E79" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="10">
@@ -4123,27 +4135,27 @@
       <c r="B80" t="s" s="11">
         <v>167</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>18</v>
+      <c r="C80" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D80" s="13">
         <v>43875</v>
       </c>
-      <c r="E80" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F80" s="14"/>
-      <c r="G80" t="s" s="12">
+      <c r="E80" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="10">
@@ -4152,27 +4164,27 @@
       <c r="B81" t="s" s="11">
         <v>169</v>
       </c>
-      <c r="C81" t="s" s="12">
-        <v>18</v>
+      <c r="C81" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D81" s="13">
         <v>43875</v>
       </c>
-      <c r="E81" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F81" s="14"/>
-      <c r="G81" t="s" s="12">
+      <c r="E81" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="10">
@@ -4181,27 +4193,27 @@
       <c r="B82" t="s" s="11">
         <v>171</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>18</v>
+      <c r="C82" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D82" s="13">
         <v>43875</v>
       </c>
-      <c r="E82" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
+      <c r="E82" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="10">
@@ -4210,27 +4222,27 @@
       <c r="B83" t="s" s="11">
         <v>173</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>18</v>
+      <c r="C83" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D83" s="13">
         <v>43875</v>
       </c>
-      <c r="E83" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
+      <c r="E83" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="10">
@@ -4239,27 +4251,27 @@
       <c r="B84" t="s" s="11">
         <v>175</v>
       </c>
-      <c r="C84" t="s" s="12">
-        <v>18</v>
+      <c r="C84" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D84" s="13">
         <v>43875</v>
       </c>
-      <c r="E84" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
+      <c r="E84" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="10">
@@ -4268,421 +4280,508 @@
       <c r="B85" t="s" s="11">
         <v>177</v>
       </c>
-      <c r="C85" t="s" s="12">
-        <v>18</v>
+      <c r="C85" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D85" s="13">
         <v>43875</v>
       </c>
-      <c r="E85" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" t="s" s="12">
+      <c r="E85" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="10">
         <v>178</v>
       </c>
       <c r="B86" t="s" s="11">
-        <v>177</v>
-      </c>
-      <c r="C86" t="s" s="12">
-        <v>18</v>
+        <v>179</v>
+      </c>
+      <c r="C86" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D86" s="13">
         <v>43875</v>
       </c>
-      <c r="E86" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" t="s" s="12">
+      <c r="E86" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s" s="11">
-        <v>180</v>
-      </c>
-      <c r="C87" t="s" s="12">
-        <v>18</v>
+        <v>181</v>
+      </c>
+      <c r="C87" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D87" s="13">
         <v>43875</v>
       </c>
-      <c r="E87" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" t="s" s="12">
+      <c r="E87" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s" s="11">
-        <v>180</v>
-      </c>
-      <c r="C88" t="s" s="12">
-        <v>18</v>
+        <v>183</v>
+      </c>
+      <c r="C88" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D88" s="13">
         <v>43875</v>
       </c>
-      <c r="E88" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" t="s" s="12">
+      <c r="E88" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s" s="11">
         <v>183</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>18</v>
+      <c r="C89" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D89" s="13">
         <v>43875</v>
       </c>
-      <c r="E89" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" t="s" s="12">
+      <c r="E89" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B90" t="s" s="11">
-        <v>183</v>
-      </c>
-      <c r="C90" t="s" s="12">
-        <v>18</v>
+        <v>186</v>
+      </c>
+      <c r="C90" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D90" s="13">
         <v>43875</v>
       </c>
-      <c r="E90" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" t="s" s="12">
+      <c r="E90" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s" s="11">
-        <v>122</v>
-      </c>
-      <c r="C91" t="s" s="12">
-        <v>18</v>
+        <v>186</v>
+      </c>
+      <c r="C91" t="s" s="14">
+        <v>23</v>
       </c>
       <c r="D91" s="13">
         <v>43875</v>
       </c>
-      <c r="E91" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" t="s" s="12">
+      <c r="E91" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="10">
-        <v>186</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="14"/>
+        <v>188</v>
+      </c>
+      <c r="B92" t="s" s="11">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D92" s="13">
         <v>43875</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
+      <c r="E92" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="10">
-        <v>187</v>
-      </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="14"/>
+        <v>190</v>
+      </c>
+      <c r="B93" t="s" s="11">
+        <v>189</v>
+      </c>
+      <c r="C93" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D93" s="13">
         <v>43875</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
+      <c r="E93" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="10">
-        <v>188</v>
-      </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="14"/>
+        <v>191</v>
+      </c>
+      <c r="B94" t="s" s="11">
+        <v>128</v>
+      </c>
+      <c r="C94" t="s" s="14">
+        <v>23</v>
+      </c>
       <c r="D94" s="13">
         <v>43875</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
+      <c r="E94" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="10">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B95" s="15"/>
-      <c r="C95" s="14"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
+        <v>43875</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B96" s="15"/>
-      <c r="C96" s="14"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
+        <v>43875</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B97" s="15"/>
-      <c r="C97" s="14"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
+        <v>43875</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B98" s="15"/>
-      <c r="C98" s="14"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="13">
         <v>43851</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="10">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B99" s="15"/>
-      <c r="C99" s="14"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="13">
         <v>43851</v>
       </c>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" t="s" s="10">
-        <v>194</v>
-      </c>
-      <c r="B100" t="s" s="11">
-        <v>195</v>
-      </c>
-      <c r="C100" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="13">
-        <v>41424</v>
-      </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" t="s" s="12">
-        <v>196</v>
-      </c>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
+        <v>43851</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" t="s" s="10">
-        <v>197</v>
-      </c>
-      <c r="B101" t="s" s="11">
         <v>198</v>
       </c>
-      <c r="C101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+    </row>
+    <row r="102" ht="20.05" customHeight="1">
+      <c r="A102" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+    </row>
+    <row r="103" ht="20.05" customHeight="1">
+      <c r="A103" t="s" s="10">
+        <v>200</v>
+      </c>
+      <c r="B103" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13">
+        <v>41424</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" t="s" s="14">
+        <v>202</v>
+      </c>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+    </row>
+    <row r="104" ht="20.05" customHeight="1">
+      <c r="A104" t="s" s="10">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s" s="11">
+        <v>204</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="13">
         <v>39543</v>
       </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" t="s" s="12">
-        <v>196</v>
-      </c>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" t="s" s="14">
+        <v>202</v>
+      </c>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/delong-github-public-files-database.xlsx
+++ b/delong-github-public-files-database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>Table 1</t>
   </si>
@@ -61,66 +61,117 @@
     <t>master file &amp; record for things in this directory</t>
   </si>
   <si>
-    <t>grasping-reality-references-to-public-files.xlsx</t>
+    <t>econ-135-zoom-2020-04-07-rough-transcript.pdf</t>
+  </si>
+  <si>
+    <t>really existing socialism zoom q&amp;a; also econ-135-2020-04-07-11.04.11-977697999-res-lec-19.zip; lecture-rise-&amp;-fall-of-res-text.pdf; econ-135-lecture-19.pptx; econ-135-lecture-19b.pptx</t>
+  </si>
+  <si>
+    <t>econ-135</t>
+  </si>
+  <si>
+    <t>#heg</t>
+  </si>
+  <si>
+    <t>econ-135-2020-04-07-11.04.11-977697999-res-lec-19.zip</t>
+  </si>
+  <si>
+    <t>really existing socialism zoom; also econ-135-zoom-2020-04-07-rough-transcript.pdf; lecture-rise-&amp;-fall-of-res-text.pdf; econ-135-lecture-19.pptx; econ-135-lecture-19b.pptx</t>
+  </si>
+  <si>
+    <t>coronavirus-extrapolations.xlsx</t>
+  </si>
+  <si>
+    <t>weekly extrapolation of deaths file…</t>
+  </si>
+  <si>
+    <t>grasping-reality-references-to-public-files-&amp;-jupyterlab.xlsx</t>
   </si>
   <si>
     <t>files on grasping reality thet point to files on github</t>
   </si>
   <si>
+    <t>coronavirus.pptx</t>
+  </si>
+  <si>
+    <t>coronavirus presentations</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>coronavirus-state.xlsx</t>
+  </si>
+  <si>
+    <t>state-by-state coronavirus numbers</t>
+  </si>
+  <si>
+    <t>coronavirus-us-deaths.xlsx</t>
+  </si>
+  <si>
+    <t>u.s. coronavirus deaths by date</t>
+  </si>
+  <si>
+    <t>slides on coronavirus</t>
+  </si>
+  <si>
+    <t>econ-115-lecture-15.pptx</t>
+  </si>
+  <si>
+    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf); Apr 06 &amp; 08</t>
+  </si>
+  <si>
+    <t>econ-115</t>
+  </si>
+  <si>
+    <t>lecture-rise-&amp;-fall-of-res-text.pdf</t>
+  </si>
+  <si>
+    <t>lecture notes: really existing socialism; also econ-135-zoom-2020-04-07-rough-transcript.pdf; econ-135-2020-04-07-11.04.11-977697999-res-lec-19.zip; econ-135-lecture-19.pptx; econ-135-lecture-19b.pptx</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-19b.pptx</t>
+  </si>
+  <si>
+    <t>really existing socialism lecture; also econ-135-zoom-2020-04-07-rough-transcript.pdf; econ-135-2020-04-07-11.04.11-977697999-res-lec-19.zip; lecture-rise-&amp;-fall-of-res-text.pdf; econ-135-lecture-19.pptx</t>
+  </si>
+  <si>
+    <t>econ-135-lecture-19.pptx</t>
+  </si>
+  <si>
+    <t>really existing socialism lecture; also econ-135-zoom-2020-04-07-rough-transcript.pdf; econ-135-2020-04-07-11.04.11-977697999-res-lec-19.zip; lecture-rise-&amp;-fall-of-res-text.pdf; econ-135-lecture-19b.pptx</t>
+  </si>
+  <si>
     <t>lecture-rise-of-socialism—350-1917-text-pdf</t>
   </si>
   <si>
     <t>lecture: rise of sociaiism -350 to 1917 lecture text (also lecture-rise-of-socialism—350-1917.pptx)</t>
   </si>
   <si>
-    <t>#heg</t>
-  </si>
-  <si>
     <t>lecture-rise-of-socialism—350-1917.pptx</t>
   </si>
   <si>
     <t>lecture: rise of sociaiism -350 to 1917 lecture slides (also lecture-rise-of-socialism—350-1917-text.pdf)</t>
   </si>
   <si>
-    <t>.pdf</t>
-  </si>
-  <si>
-    <t>coronavirus.pptx</t>
-  </si>
-  <si>
-    <t>coronavirus presentations</t>
-  </si>
-  <si>
     <t>econ-115-lecture-14.pptx</t>
   </si>
   <si>
     <t>the end of really existing socialism; Apr 01</t>
   </si>
   <si>
-    <t>econ-115</t>
-  </si>
-  <si>
     <t>econ-135-lecture-18.pptx</t>
   </si>
   <si>
     <t>touring the continents: western europe, latin america, &amp; north america; also lecture-europe-%26-americas-text.pdf</t>
   </si>
   <si>
-    <t>econ-135</t>
-  </si>
-  <si>
     <t>lecture-europe-%26-americas-text.pdf</t>
   </si>
   <si>
     <t>touring the continents: western europe, latin america, &amp; north america; also econ-135-lecture-18.pptx</t>
   </si>
   <si>
-    <t>coronavirus-state.xlsx</t>
-  </si>
-  <si>
-    <t>state-by-state coronavirus numbers</t>
-  </si>
-  <si>
     <t>econ-210a-lecture-10a.pptx</t>
   </si>
   <si>
@@ -142,12 +193,6 @@
     <t>spreadsheet for h calculations</t>
   </si>
   <si>
-    <t>econ-115-lecture-15.pptx</t>
-  </si>
-  <si>
-    <t>the neoliberal turn (also lecture-neoliberal-turn-text.pdf); Apr 06 &amp; 08</t>
-  </si>
-  <si>
     <t>lecture-notes-smith-marx-keynes.pdf</t>
   </si>
   <si>
@@ -196,12 +241,6 @@
     <t>social democracy: high tide &amp; ebb; Mar 30</t>
   </si>
   <si>
-    <t>us-coronavirus-deaths.xlsx</t>
-  </si>
-  <si>
-    <t>u.s. coronavirus deaths by date</t>
-  </si>
-  <si>
     <t>econ-135-lecture-17.pptx</t>
   </si>
   <si>
@@ -212,9 +251,6 @@
   </si>
   <si>
     <t>lecture text to econ-135-lecture-17.pptx</t>
-  </si>
-  <si>
-    <t>slides on coronavirus</t>
   </si>
   <si>
     <t>lecture-inequality-text.pdf</t>
@@ -1921,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O104"/>
+  <dimension ref="A2:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2012,7 +2048,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2028,7 +2064,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
         <v>16</v>
       </c>
@@ -2037,39 +2073,41 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13">
-        <v>43924</v>
-      </c>
-      <c r="E4" s="12"/>
+        <v>43928</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>18</v>
+      </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="G4" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" t="s" s="14">
-        <v>11</v>
-      </c>
+      <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13">
-        <v>43924</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" t="s" s="14">
-        <v>6</v>
-      </c>
+        <v>43928</v>
+      </c>
+      <c r="E5" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -2082,25 +2120,21 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="14">
         <v>23</v>
       </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="13">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" t="s" s="14">
+        <v>8</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -2116,23 +2150,21 @@
       <c r="B7" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="C7" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" t="s" s="14">
-        <v>8</v>
-      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="M7" t="s" s="14">
+        <v>11</v>
+      </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
     </row>
@@ -2144,19 +2176,17 @@
         <v>27</v>
       </c>
       <c r="C8" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13">
-        <v>43924</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s" s="14">
-        <v>6</v>
-      </c>
+        <v>43928</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="H8" t="s" s="14">
+        <v>8</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -2172,22 +2202,16 @@
       <c r="B9" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="C9" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <v>43923</v>
-      </c>
-      <c r="E9" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>43928</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" t="s" s="14">
+        <v>8</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -2198,25 +2222,21 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="11">
         <v>32</v>
-      </c>
-      <c r="B10" t="s" s="11">
-        <v>33</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <v>43923</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>43928</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" t="s" s="14">
+        <v>8</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -2227,14 +2247,14 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <v>43923</v>
+        <v>43928</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2252,26 +2272,28 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13">
+        <v>43927</v>
+      </c>
+      <c r="E12" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="B12" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="D12" s="13">
-        <v>43922</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H12" s="12"/>
-      <c r="I12" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -2279,24 +2301,24 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
+    <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="E13" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G13" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2306,20 +2328,24 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
+    <row r="14" ht="32.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13">
-        <v>43922</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>43926</v>
+      </c>
+      <c r="E14" t="s" s="14">
+        <v>18</v>
+      </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="G14" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -2329,27 +2355,23 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
+    <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="13">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="E15" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s" s="14">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -2362,56 +2384,54 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="13">
-        <v>43921</v>
+        <v>43924</v>
       </c>
       <c r="E16" t="s" s="14">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s" s="14">
         <v>6</v>
       </c>
       <c r="G16" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" t="s" s="14">
-        <v>12</v>
-      </c>
+      <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D17" s="13">
-        <v>43921</v>
+        <v>43924</v>
       </c>
       <c r="E17" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F17" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G17" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -2424,17 +2444,19 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="C18" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D18" s="13">
-        <v>43921</v>
+        <v>43924</v>
       </c>
       <c r="E18" t="s" s="14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s" s="14">
         <v>6</v>
@@ -2451,21 +2473,25 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="C19" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D19" s="13">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="E19" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F19" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G19" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -2478,24 +2504,26 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="11">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="13">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="E20" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H20" s="12"/>
-      <c r="I20" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -2505,24 +2533,22 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>58</v>
-      </c>
-      <c r="C21" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D21" s="13">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="E21" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" t="s" s="14">
         <v>9</v>
@@ -2536,19 +2562,17 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C22" s="12"/>
       <c r="D22" s="13">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="E22" t="s" s="14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s" s="14">
         <v>6</v>
@@ -2565,21 +2589,19 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" t="s" s="14">
-        <v>8</v>
-      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -2590,50 +2612,56 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13">
+        <v>43921</v>
+      </c>
+      <c r="E24" t="s" s="14">
         <v>63</v>
       </c>
-      <c r="B24" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="D24" s="13">
-        <v>43919</v>
-      </c>
-      <c r="E24" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F24" s="12"/>
+      <c r="F24" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G24" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="I24" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="N24" t="s" s="14">
+        <v>12</v>
+      </c>
       <c r="O24" s="12"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s" s="11">
         <v>65</v>
-      </c>
-      <c r="B25" t="s" s="11">
-        <v>66</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="13">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="E25" t="s" s="14">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -2646,21 +2674,23 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>67</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="13">
-        <v>43912</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+        <v>43921</v>
+      </c>
+      <c r="E26" t="s" s="14">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" t="s" s="14">
-        <v>8</v>
-      </c>
+      <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -2678,20 +2708,18 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="13">
-        <v>43912</v>
+        <v>43921</v>
       </c>
       <c r="E27" t="s" s="14">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
-      <c r="J27" t="s" s="14">
-        <v>10</v>
-      </c>
+      <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -2705,24 +2733,20 @@
       <c r="B28" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="C28" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C28" s="12"/>
       <c r="D28" s="13">
-        <v>43912</v>
+        <v>43921</v>
       </c>
       <c r="E28" t="s" s="14">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" t="s" s="14">
-        <v>20</v>
-      </c>
+      <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" t="s" s="14">
-        <v>10</v>
-      </c>
+      <c r="I28" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
@@ -2736,21 +2760,23 @@
       <c r="B29" t="s" s="11">
         <v>73</v>
       </c>
-      <c r="C29" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C29" s="12"/>
       <c r="D29" s="13">
-        <v>43909</v>
+        <v>43921</v>
       </c>
       <c r="E29" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F29" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F29" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G29" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="I29" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -2765,12 +2791,14 @@
       <c r="B30" t="s" s="11">
         <v>75</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D30" s="13">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="E30" t="s" s="14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s" s="14">
         <v>6</v>
@@ -2793,17 +2821,17 @@
         <v>77</v>
       </c>
       <c r="C31" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D31" s="13">
-        <v>43907</v>
+        <v>43919</v>
       </c>
       <c r="E31" t="s" s="14">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -2819,19 +2847,19 @@
         <v>78</v>
       </c>
       <c r="B32" t="s" s="11">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13">
-        <v>43907</v>
+        <v>43919</v>
       </c>
       <c r="E32" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G32" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2843,27 +2871,27 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C33" s="12"/>
       <c r="D33" s="13">
-        <v>43907</v>
+        <v>43912</v>
       </c>
       <c r="E33" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="G33" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H33" s="12"/>
-      <c r="I33" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" t="s" s="14">
+        <v>10</v>
+      </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
@@ -2872,21 +2900,29 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s" s="11">
-        <v>82</v>
-      </c>
-      <c r="C34" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="C34" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D34" s="13">
-        <v>43906</v>
-      </c>
-      <c r="E34" s="12"/>
+        <v>43912</v>
+      </c>
+      <c r="E34" t="s" s="14">
+        <v>18</v>
+      </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="G34" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="J34" t="s" s="14">
+        <v>10</v>
+      </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
@@ -2895,22 +2931,24 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="C35" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="C35" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D35" s="13">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="E35" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G35" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -2922,17 +2960,17 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="E36" t="s" s="14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s" s="14">
         <v>6</v>
@@ -2949,24 +2987,24 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D37" s="13">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="E37" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F37" t="s" s="14">
-        <v>6</v>
-      </c>
-      <c r="G37" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -2978,19 +3016,17 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C38" s="12"/>
       <c r="D38" s="13">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="E38" t="s" s="14">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s" s="14">
         <v>6</v>
@@ -3007,26 +3043,26 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39" s="13">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="E39" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s" s="14">
-        <v>6</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="I39" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
@@ -3036,23 +3072,17 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s" s="11">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="13">
-        <v>43903</v>
-      </c>
-      <c r="E40" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s" s="14">
-        <v>6</v>
-      </c>
+        <v>43906</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -3065,19 +3095,17 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s" s="11">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C41" s="12"/>
       <c r="D41" s="13">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="E41" t="s" s="14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s" s="14">
         <v>6</v>
@@ -3099,14 +3127,12 @@
       <c r="B42" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="C42" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="13">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="E42" t="s" s="14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s" s="14">
         <v>6</v>
@@ -3129,18 +3155,18 @@
         <v>99</v>
       </c>
       <c r="C43" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D43" s="13">
         <v>43903</v>
       </c>
       <c r="E43" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F43" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
@@ -3158,18 +3184,18 @@
         <v>101</v>
       </c>
       <c r="C44" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D44" s="13">
         <v>43903</v>
       </c>
       <c r="E44" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F44" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -3187,18 +3213,18 @@
         <v>103</v>
       </c>
       <c r="C45" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D45" s="13">
         <v>43903</v>
       </c>
       <c r="E45" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F45" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3216,18 +3242,18 @@
         <v>105</v>
       </c>
       <c r="C46" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D46" s="13">
         <v>43903</v>
       </c>
       <c r="E46" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F46" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -3245,20 +3271,20 @@
         <v>107</v>
       </c>
       <c r="C47" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D47" s="13">
         <v>43903</v>
       </c>
       <c r="E47" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="F47" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F47" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -3274,20 +3300,20 @@
         <v>109</v>
       </c>
       <c r="C48" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D48" s="13">
         <v>43903</v>
       </c>
       <c r="E48" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="F48" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F48" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -3302,18 +3328,18 @@
       <c r="B49" t="s" s="11">
         <v>111</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D49" s="13">
         <v>43903</v>
       </c>
       <c r="E49" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F49" t="s" s="14">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="G49" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -3331,45 +3357,51 @@
       <c r="B50" t="s" s="11">
         <v>113</v>
       </c>
-      <c r="C50" s="12"/>
+      <c r="C50" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D50" s="13">
         <v>43903</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" t="s" s="14">
+        <v>18</v>
+      </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="G50" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" t="s" s="14">
-        <v>114</v>
-      </c>
+      <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" t="s" s="14">
-        <v>115</v>
-      </c>
+      <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="10">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s" s="11">
-        <v>117</v>
-      </c>
-      <c r="C51" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="C51" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D51" s="13">
         <v>43903</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" t="s" s="14">
+        <v>18</v>
+      </c>
       <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="G51" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" t="s" s="14">
-        <v>114</v>
-      </c>
+      <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
@@ -3378,16 +3410,24 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="B52" t="s" s="11">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D52" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E52" s="12"/>
+        <v>43903</v>
+      </c>
+      <c r="E52" t="s" s="14">
+        <v>18</v>
+      </c>
       <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="G52" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3399,20 +3439,26 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s" s="11">
         <v>119</v>
       </c>
-      <c r="B53" t="s" s="11">
-        <v>120</v>
-      </c>
-      <c r="C53" s="12"/>
+      <c r="C53" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D53" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E53" s="12"/>
+        <v>43903</v>
+      </c>
+      <c r="E53" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="I53" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
@@ -3422,26 +3468,26 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s" s="11">
         <v>121</v>
       </c>
-      <c r="B54" t="s" s="11">
-        <v>122</v>
-      </c>
       <c r="C54" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D54" s="13">
-        <v>43888</v>
+        <v>43903</v>
       </c>
       <c r="E54" t="s" s="14">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F54" s="12"/>
-      <c r="G54" t="s" s="14">
-        <v>20</v>
-      </c>
+      <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="I54" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
@@ -3451,23 +3497,23 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s" s="11">
         <v>123</v>
       </c>
-      <c r="B55" t="s" s="11">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C55" s="12"/>
       <c r="D55" s="13">
-        <v>43888</v>
+        <v>43903</v>
       </c>
       <c r="E55" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F55" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F55" t="s" s="14">
+        <v>6</v>
+      </c>
       <c r="G55" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -3480,56 +3526,50 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="B56" t="s" s="11">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C56" s="12"/>
       <c r="D56" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E56" t="s" s="14">
-        <v>31</v>
-      </c>
+        <v>43903</v>
+      </c>
+      <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" t="s" s="14">
-        <v>20</v>
-      </c>
+      <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
+      <c r="J56" t="s" s="14">
+        <v>126</v>
+      </c>
       <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+      <c r="L56" t="s" s="14">
+        <v>127</v>
+      </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s" s="11">
-        <v>128</v>
-      </c>
-      <c r="C57" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C57" s="12"/>
       <c r="D57" s="13">
-        <v>43888</v>
-      </c>
-      <c r="E57" t="s" s="14">
-        <v>38</v>
-      </c>
+        <v>43903</v>
+      </c>
+      <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="I57" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" t="s" s="14">
+        <v>126</v>
+      </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
@@ -3538,26 +3578,18 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="B58" t="s" s="11">
         <v>130</v>
       </c>
-      <c r="C58" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="13">
         <v>43888</v>
       </c>
-      <c r="E58" t="s" s="14">
-        <v>38</v>
-      </c>
+      <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
@@ -3570,23 +3602,17 @@
         <v>131</v>
       </c>
       <c r="B59" t="s" s="11">
-        <v>130</v>
-      </c>
-      <c r="C59" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C59" s="12"/>
       <c r="D59" s="13">
         <v>43888</v>
       </c>
-      <c r="E59" t="s" s="14">
-        <v>38</v>
-      </c>
+      <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
@@ -3596,26 +3622,26 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s" s="11">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D60" s="13">
         <v>43888</v>
       </c>
       <c r="E60" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="G60" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H60" s="12"/>
-      <c r="I60" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
@@ -3625,24 +3651,26 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s" s="11">
-        <v>134</v>
-      </c>
-      <c r="C61" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="C61" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D61" s="13">
         <v>43888</v>
       </c>
       <c r="E61" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="G61" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H61" s="12"/>
-      <c r="I61" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
@@ -3652,23 +3680,27 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="10">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s" s="11">
-        <v>136</v>
-      </c>
-      <c r="C62" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="C62" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D62" s="13">
         <v>43888</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" t="s" s="14">
+        <v>18</v>
+      </c>
       <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="G62" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" t="s" s="14">
-        <v>10</v>
-      </c>
+      <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
@@ -3677,18 +3709,26 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="10">
-        <v>137</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="B63" t="s" s="11">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D63" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E63" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E63" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="I63" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -3698,14 +3738,20 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="B64" t="s" s="11">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D64" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E64" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E64" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -3721,18 +3767,26 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="10">
-        <v>139</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="B65" t="s" s="11">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D65" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E65" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E65" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="I65" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -3742,18 +3796,26 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="10">
-        <v>140</v>
-      </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="B66" t="s" s="11">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D66" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E66" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E66" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="I66" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
@@ -3763,18 +3825,24 @@
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="10">
-        <v>141</v>
-      </c>
-      <c r="B67" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="B67" t="s" s="11">
+        <v>146</v>
+      </c>
       <c r="C67" s="12"/>
       <c r="D67" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E67" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="E67" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="I67" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
@@ -3784,25 +3852,23 @@
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="10">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s" s="11">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="13">
-        <v>43875</v>
-      </c>
-      <c r="E68" t="s" s="14">
-        <v>38</v>
-      </c>
+        <v>43888</v>
+      </c>
+      <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="I68" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="J68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" t="s" s="14">
+        <v>10</v>
+      </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
@@ -3811,23 +3877,15 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="10">
-        <v>144</v>
-      </c>
-      <c r="B69" t="s" s="11">
-        <v>145</v>
-      </c>
-      <c r="C69" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="13">
         <v>43875</v>
       </c>
-      <c r="E69" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F69" t="s" s="14">
-        <v>6</v>
-      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -3840,26 +3898,20 @@
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="B70" t="s" s="11">
-        <v>147</v>
-      </c>
-      <c r="C70" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="13">
         <v>43875</v>
       </c>
-      <c r="E70" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F70" t="s" s="14">
-        <v>6</v>
-      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
+      <c r="I70" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
@@ -3869,23 +3921,15 @@
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="B71" t="s" s="11">
-        <v>149</v>
-      </c>
-      <c r="C71" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="13">
         <v>43875</v>
       </c>
-      <c r="E71" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F71" t="s" s="14">
-        <v>6</v>
-      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -3898,23 +3942,15 @@
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="10">
-        <v>150</v>
-      </c>
-      <c r="B72" t="s" s="11">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s" s="14">
-        <v>23</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="13">
         <v>43875</v>
       </c>
-      <c r="E72" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F72" t="s" s="14">
-        <v>6</v>
-      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -3927,23 +3963,15 @@
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="10">
-        <v>152</v>
-      </c>
-      <c r="B73" t="s" s="11">
         <v>153</v>
       </c>
-      <c r="C73" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="13">
         <v>43875</v>
       </c>
-      <c r="E73" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F73" t="s" s="14">
-        <v>6</v>
-      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -3961,21 +3989,19 @@
       <c r="B74" t="s" s="11">
         <v>155</v>
       </c>
-      <c r="C74" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C74" s="12"/>
       <c r="D74" s="13">
         <v>43875</v>
       </c>
       <c r="E74" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F74" t="s" s="14">
-        <v>6</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+      <c r="I74" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
@@ -3991,18 +4017,18 @@
         <v>157</v>
       </c>
       <c r="C75" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D75" s="13">
         <v>43875</v>
       </c>
       <c r="E75" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F75" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -4020,18 +4046,18 @@
         <v>159</v>
       </c>
       <c r="C76" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D76" s="13">
         <v>43875</v>
       </c>
       <c r="E76" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F76" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
@@ -4049,18 +4075,18 @@
         <v>161</v>
       </c>
       <c r="C77" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D77" s="13">
         <v>43875</v>
       </c>
       <c r="E77" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F77" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
@@ -4078,18 +4104,18 @@
         <v>163</v>
       </c>
       <c r="C78" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D78" s="13">
         <v>43875</v>
       </c>
       <c r="E78" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F78" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -4107,18 +4133,18 @@
         <v>165</v>
       </c>
       <c r="C79" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D79" s="13">
         <v>43875</v>
       </c>
       <c r="E79" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F79" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -4136,18 +4162,18 @@
         <v>167</v>
       </c>
       <c r="C80" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D80" s="13">
         <v>43875</v>
       </c>
       <c r="E80" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" t="s" s="14">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F80" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -4165,17 +4191,17 @@
         <v>169</v>
       </c>
       <c r="C81" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D81" s="13">
         <v>43875</v>
       </c>
       <c r="E81" t="s" s="14">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -4194,17 +4220,17 @@
         <v>171</v>
       </c>
       <c r="C82" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D82" s="13">
         <v>43875</v>
       </c>
       <c r="E82" t="s" s="14">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -4223,17 +4249,17 @@
         <v>173</v>
       </c>
       <c r="C83" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D83" s="13">
         <v>43875</v>
       </c>
       <c r="E83" t="s" s="14">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -4252,17 +4278,17 @@
         <v>175</v>
       </c>
       <c r="C84" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D84" s="13">
         <v>43875</v>
       </c>
       <c r="E84" t="s" s="14">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
@@ -4281,20 +4307,20 @@
         <v>177</v>
       </c>
       <c r="C85" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D85" s="13">
         <v>43875</v>
       </c>
       <c r="E85" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
+      <c r="G85" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H85" s="12"/>
-      <c r="I85" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
@@ -4310,20 +4336,20 @@
         <v>179</v>
       </c>
       <c r="C86" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D86" s="13">
         <v>43875</v>
       </c>
       <c r="E86" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="G86" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H86" s="12"/>
-      <c r="I86" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
@@ -4339,20 +4365,20 @@
         <v>181</v>
       </c>
       <c r="C87" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D87" s="13">
         <v>43875</v>
       </c>
       <c r="E87" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="G87" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H87" s="12"/>
-      <c r="I87" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
@@ -4368,20 +4394,20 @@
         <v>183</v>
       </c>
       <c r="C88" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D88" s="13">
         <v>43875</v>
       </c>
       <c r="E88" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="G88" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H88" s="12"/>
-      <c r="I88" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
@@ -4394,23 +4420,23 @@
         <v>184</v>
       </c>
       <c r="B89" t="s" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C89" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D89" s="13">
         <v>43875</v>
       </c>
       <c r="E89" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="G89" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H89" s="12"/>
-      <c r="I89" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
@@ -4420,26 +4446,26 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D90" s="13">
         <v>43875</v>
       </c>
       <c r="E90" t="s" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="G90" t="s" s="14">
+        <v>19</v>
+      </c>
       <c r="H90" s="12"/>
-      <c r="I90" t="s" s="14">
-        <v>9</v>
-      </c>
+      <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
@@ -4449,19 +4475,19 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D91" s="13">
         <v>43875</v>
       </c>
       <c r="E91" t="s" s="14">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -4478,19 +4504,19 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="10">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D92" s="13">
         <v>43875</v>
       </c>
       <c r="E92" t="s" s="14">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -4507,19 +4533,19 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="10">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s" s="11">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D93" s="13">
         <v>43875</v>
       </c>
       <c r="E93" t="s" s="14">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
@@ -4536,19 +4562,19 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="10">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s" s="11">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D94" s="13">
         <v>43875</v>
       </c>
       <c r="E94" t="s" s="14">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
@@ -4565,18 +4591,26 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="10">
-        <v>192</v>
-      </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="12"/>
+        <v>196</v>
+      </c>
+      <c r="B95" t="s" s="11">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D95" s="13">
         <v>43875</v>
       </c>
-      <c r="E95" s="12"/>
+      <c r="E95" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
+      <c r="I95" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
@@ -4586,18 +4620,26 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="10">
-        <v>193</v>
-      </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="12"/>
+        <v>197</v>
+      </c>
+      <c r="B96" t="s" s="11">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D96" s="13">
         <v>43875</v>
       </c>
-      <c r="E96" s="12"/>
+      <c r="E96" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
+      <c r="I96" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
@@ -4607,18 +4649,26 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="10">
-        <v>194</v>
-      </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="12"/>
+        <v>199</v>
+      </c>
+      <c r="B97" t="s" s="11">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D97" s="13">
         <v>43875</v>
       </c>
-      <c r="E97" s="12"/>
+      <c r="E97" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
+      <c r="I97" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
@@ -4628,18 +4678,26 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="10">
-        <v>195</v>
-      </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="B98" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D98" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E98" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E98" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
+      <c r="I98" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
@@ -4649,14 +4707,20 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="10">
-        <v>196</v>
-      </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="B99" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D99" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E99" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E99" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -4672,18 +4736,26 @@
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" t="s" s="10">
-        <v>197</v>
-      </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="12"/>
+        <v>203</v>
+      </c>
+      <c r="B100" t="s" s="11">
+        <v>140</v>
+      </c>
+      <c r="C100" t="s" s="14">
+        <v>28</v>
+      </c>
       <c r="D100" s="13">
-        <v>43851</v>
-      </c>
-      <c r="E100" s="12"/>
+        <v>43875</v>
+      </c>
+      <c r="E100" t="s" s="14">
+        <v>55</v>
+      </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
+      <c r="I100" t="s" s="14">
+        <v>9</v>
+      </c>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
@@ -4693,12 +4765,12 @@
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" t="s" s="10">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="12"/>
       <c r="D101" s="13">
-        <v>43851</v>
+        <v>43875</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -4714,12 +4786,12 @@
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="10">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13">
-        <v>43851</v>
+        <v>43875</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -4735,14 +4807,12 @@
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="10">
-        <v>200</v>
-      </c>
-      <c r="B103" t="s" s="11">
-        <v>201</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B103" s="15"/>
       <c r="C103" s="12"/>
       <c r="D103" s="13">
-        <v>41424</v>
+        <v>43875</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -4750,9 +4820,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
-      <c r="K103" t="s" s="14">
-        <v>202</v>
-      </c>
+      <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
@@ -4760,14 +4828,12 @@
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="10">
-        <v>203</v>
-      </c>
-      <c r="B104" t="s" s="11">
-        <v>204</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B104" s="15"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13">
-        <v>39543</v>
+        <v>43851</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -4775,13 +4841,147 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
-      <c r="K104" t="s" s="14">
-        <v>202</v>
-      </c>
+      <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
       <c r="O104" s="12"/>
+    </row>
+    <row r="105" ht="20.05" customHeight="1">
+      <c r="A105" t="s" s="10">
+        <v>208</v>
+      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+    </row>
+    <row r="106" ht="20.05" customHeight="1">
+      <c r="A106" t="s" s="10">
+        <v>209</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+    </row>
+    <row r="107" ht="20.05" customHeight="1">
+      <c r="A107" t="s" s="10">
+        <v>210</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+    </row>
+    <row r="108" ht="20.05" customHeight="1">
+      <c r="A108" t="s" s="10">
+        <v>211</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="13">
+        <v>43851</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+    </row>
+    <row r="109" ht="20.05" customHeight="1">
+      <c r="A109" t="s" s="10">
+        <v>212</v>
+      </c>
+      <c r="B109" t="s" s="11">
+        <v>213</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="13">
+        <v>41424</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" t="s" s="14">
+        <v>214</v>
+      </c>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+    </row>
+    <row r="110" ht="20.05" customHeight="1">
+      <c r="A110" t="s" s="10">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s" s="11">
+        <v>216</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="13">
+        <v>39543</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" t="s" s="14">
+        <v>214</v>
+      </c>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
